--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13208982939565</v>
+        <v>14.13208982939566</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.194108971860927</v>
+        <v>7.194108971860926</v>
       </c>
       <c r="E2">
-        <v>7.760245621295388</v>
+        <v>7.760245621295449</v>
       </c>
       <c r="F2">
-        <v>55.82001530367219</v>
+        <v>55.82001530367224</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>13.09633565173984</v>
+        <v>13.09633565173985</v>
       </c>
       <c r="I2">
-        <v>5.207350808318219</v>
+        <v>5.207350808318254</v>
       </c>
       <c r="J2">
-        <v>47.12793099369911</v>
+        <v>47.12793099369914</v>
       </c>
       <c r="K2">
-        <v>36.14087230698493</v>
+        <v>36.14087230698495</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.14400631406041</v>
+        <v>13.14400631406039</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.559793367438164</v>
+        <v>6.559793367438179</v>
       </c>
       <c r="E3">
-        <v>7.341670326184237</v>
+        <v>7.341670326184116</v>
       </c>
       <c r="F3">
-        <v>51.48069429519231</v>
+        <v>51.48069429519219</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.4740657255523</v>
+        <v>13.47406572555226</v>
       </c>
       <c r="I3">
-        <v>5.236004691852226</v>
+        <v>5.236004691852126</v>
       </c>
       <c r="J3">
-        <v>43.51150007401636</v>
+        <v>43.51150007401624</v>
       </c>
       <c r="K3">
-        <v>33.31193537772904</v>
+        <v>33.31193537772892</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.50858779458281</v>
+        <v>12.5085877945828</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.165688282438373</v>
+        <v>6.16568828243837</v>
       </c>
       <c r="E4">
-        <v>7.085452845137788</v>
+        <v>7.085452845137556</v>
       </c>
       <c r="F4">
-        <v>48.95654099726283</v>
+        <v>48.95654099726276</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.73547866582541</v>
+        <v>13.73547866582538</v>
       </c>
       <c r="I4">
-        <v>5.256035011887917</v>
+        <v>5.256035011887747</v>
       </c>
       <c r="J4">
-        <v>41.21732567197421</v>
+        <v>41.21732567197413</v>
       </c>
       <c r="K4">
-        <v>31.5222260271712</v>
+        <v>31.52222602717117</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.24217536151288</v>
+        <v>12.24217536151291</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.003440740106166</v>
+        <v>6.003440740106107</v>
       </c>
       <c r="E5">
-        <v>6.980921961362045</v>
+        <v>6.980921961361982</v>
       </c>
       <c r="F5">
-        <v>47.92631762872651</v>
+        <v>47.92631762872648</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.84835435526535</v>
+        <v>13.84835435526529</v>
       </c>
       <c r="I5">
-        <v>5.264745794106853</v>
+        <v>5.264745794106821</v>
       </c>
       <c r="J5">
-        <v>40.26210111379563</v>
+        <v>40.26210111379556</v>
       </c>
       <c r="K5">
-        <v>30.77814136855386</v>
+        <v>30.77814136855378</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19747980881486</v>
+        <v>12.19747980881491</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.976387885407999</v>
+        <v>5.976387885408043</v>
       </c>
       <c r="E6">
-        <v>6.96354971785011</v>
+        <v>6.963549717850228</v>
       </c>
       <c r="F6">
-        <v>47.75511417368365</v>
+        <v>47.75511417368364</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.86745387717547</v>
+        <v>13.86745387717533</v>
       </c>
       <c r="I6">
-        <v>5.266223732461632</v>
+        <v>5.266223732461767</v>
       </c>
       <c r="J6">
-        <v>40.10221206990207</v>
+        <v>40.10221206990218</v>
       </c>
       <c r="K6">
         <v>30.65365599255077</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.50502542726758</v>
+        <v>12.50502542726764</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.163507390709887</v>
+        <v>6.163507390709869</v>
       </c>
       <c r="E7">
-        <v>7.084043950710589</v>
+        <v>7.084043950710524</v>
       </c>
       <c r="F7">
-        <v>48.94265539347298</v>
+        <v>48.94265539347295</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.73697648432273</v>
+        <v>13.73697648432263</v>
       </c>
       <c r="I7">
-        <v>5.256150342515409</v>
+        <v>5.256150342515375</v>
       </c>
       <c r="J7">
-        <v>41.20452765116518</v>
+        <v>41.20452765116521</v>
       </c>
       <c r="K7">
-        <v>31.51225261388388</v>
+        <v>31.51225261388387</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.79719782912198</v>
+        <v>13.79719782912193</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.976036312110358</v>
+        <v>6.976036312110436</v>
       </c>
       <c r="E8">
-        <v>7.615535639488812</v>
+        <v>7.615535639488938</v>
       </c>
       <c r="F8">
-        <v>54.31881419850973</v>
+        <v>54.31881419850967</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>13.21973577338327</v>
       </c>
       <c r="I8">
-        <v>5.216680655302375</v>
+        <v>5.216680655302342</v>
       </c>
       <c r="J8">
-        <v>45.8950801652251</v>
+        <v>45.89508016522512</v>
       </c>
       <c r="K8">
         <v>35.17540166799644</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.11730278130234</v>
+        <v>16.11730278130241</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.561185655519058</v>
+        <v>8.561185655519074</v>
       </c>
       <c r="E9">
-        <v>8.684680638428627</v>
+        <v>8.684680638428684</v>
       </c>
       <c r="F9">
-        <v>65.23329260125725</v>
+        <v>65.23329260125723</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.50359134639402</v>
+        <v>12.50359134639395</v>
       </c>
       <c r="I9">
-        <v>5.162720762250238</v>
+        <v>5.162720762250273</v>
       </c>
       <c r="J9">
-        <v>54.61337232983335</v>
+        <v>54.61337232983339</v>
       </c>
       <c r="K9">
-        <v>42.02777559248293</v>
+        <v>42.0277755924829</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.71818492007041</v>
+        <v>17.71818492007044</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.777476189763213</v>
+        <v>9.777476189763251</v>
       </c>
       <c r="E10">
-        <v>9.530729557770886</v>
+        <v>9.530729557770892</v>
       </c>
       <c r="F10">
-        <v>73.54982698972512</v>
+        <v>73.54982698972525</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12.2836695757537</v>
+        <v>12.28366957575374</v>
       </c>
       <c r="I10">
         <v>5.146272907237788</v>
       </c>
       <c r="J10">
-        <v>60.93034863988834</v>
+        <v>60.93034863988844</v>
       </c>
       <c r="K10">
-        <v>47.03068504850034</v>
+        <v>47.0306850485004</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43329792392156</v>
+        <v>18.43329792392155</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.36308234296979</v>
+        <v>10.36308234296995</v>
       </c>
       <c r="E11">
-        <v>9.946291801962801</v>
+        <v>9.946291801962809</v>
       </c>
       <c r="F11">
-        <v>77.51659225193083</v>
+        <v>77.51659225193106</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12.29260908435488</v>
+        <v>12.29260908435491</v>
       </c>
       <c r="I11">
-        <v>5.147491735826669</v>
+        <v>5.14749173582657</v>
       </c>
       <c r="J11">
-        <v>63.85953141676908</v>
+        <v>63.85953141676914</v>
       </c>
       <c r="K11">
-        <v>49.36188177077206</v>
+        <v>49.36188177077216</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.70344967781693</v>
+        <v>18.70344967781697</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.59240861088589</v>
+        <v>10.59240861088583</v>
       </c>
       <c r="E12">
-        <v>10.11059805504742</v>
+        <v>10.11059805504735</v>
       </c>
       <c r="F12">
         <v>79.06177558639638</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12.31693590470961</v>
+        <v>12.31693590470963</v>
       </c>
       <c r="I12">
-        <v>5.149753289273711</v>
+        <v>5.149753289273712</v>
       </c>
       <c r="J12">
-        <v>64.98698976820145</v>
+        <v>64.98698976820143</v>
       </c>
       <c r="K12">
         <v>50.26112197219666</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.64526984284915</v>
+        <v>18.64526984284908</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.54261877456393</v>
+        <v>10.54261877456397</v>
       </c>
       <c r="E13">
-        <v>10.07484703831707</v>
+        <v>10.07484703831711</v>
       </c>
       <c r="F13">
-        <v>78.72671475895885</v>
+        <v>78.72671475895848</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12.31065903878245</v>
+        <v>12.31065903878236</v>
       </c>
       <c r="I13">
-        <v>5.149173771650439</v>
+        <v>5.149173771650437</v>
       </c>
       <c r="J13">
-        <v>64.74313799375415</v>
+        <v>64.74313799375396</v>
       </c>
       <c r="K13">
-        <v>50.0665380833</v>
+        <v>50.06653808329978</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.45552710725784</v>
+        <v>18.45552710725794</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.38177515689118</v>
+        <v>10.38177515689114</v>
       </c>
       <c r="E14">
-        <v>9.959650677759154</v>
+        <v>9.959650677759276</v>
       </c>
       <c r="F14">
-        <v>77.64272540213743</v>
+        <v>77.64272540213791</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12.29415329758977</v>
+        <v>12.29415329758975</v>
       </c>
       <c r="I14">
-        <v>5.147637394329311</v>
+        <v>5.14763739432941</v>
       </c>
       <c r="J14">
-        <v>63.95184470668137</v>
+        <v>63.95184470668168</v>
       </c>
       <c r="K14">
-        <v>49.43546831011978</v>
+        <v>49.43546831011999</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33926716443397</v>
+        <v>18.33926716443402</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.28435215419584</v>
+        <v>10.28435215419587</v>
       </c>
       <c r="E15">
-        <v>9.890092325056118</v>
+        <v>9.890092325055983</v>
       </c>
       <c r="F15">
-        <v>76.98499967717299</v>
+        <v>76.98499967717289</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12.28696075229048</v>
+        <v>12.28696075229043</v>
       </c>
       <c r="I15">
-        <v>5.146952511650171</v>
+        <v>5.146952511650002</v>
       </c>
       <c r="J15">
-        <v>63.46992328749389</v>
+        <v>63.46992328749379</v>
       </c>
       <c r="K15">
-        <v>49.0513900620689</v>
+        <v>49.05139006206883</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.67127999907232</v>
+        <v>17.67127999907237</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.740073997543018</v>
+        <v>9.740073997542916</v>
       </c>
       <c r="E16">
-        <v>9.504376366917185</v>
+        <v>9.50437636691716</v>
       </c>
       <c r="F16">
-        <v>73.29552629759897</v>
+        <v>73.29552629759928</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12.28568641891918</v>
+        <v>12.28568641891924</v>
       </c>
       <c r="I16">
-        <v>5.146408563959597</v>
+        <v>5.146408563959663</v>
       </c>
       <c r="J16">
-        <v>60.74080502293887</v>
+        <v>60.74080502293904</v>
       </c>
       <c r="K16">
-        <v>46.88008703623596</v>
+        <v>46.88008703623606</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.25884910535505</v>
+        <v>17.25884910535513</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.416124419615194</v>
+        <v>9.416124419615214</v>
       </c>
       <c r="E17">
-        <v>9.277037712751728</v>
+        <v>9.277037712751794</v>
       </c>
       <c r="F17">
-        <v>71.08867376077397</v>
+        <v>71.08867376077384</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12.31601019207999</v>
+        <v>12.31601019207993</v>
       </c>
       <c r="I17">
         <v>5.148607672177746</v>
@@ -1009,7 +1009,7 @@
         <v>59.08669333144891</v>
       </c>
       <c r="K17">
-        <v>45.56712914627388</v>
+        <v>45.56712914627381</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02029587760147</v>
+        <v>17.02029587760143</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.232605849113057</v>
+        <v>9.232605849113035</v>
       </c>
       <c r="E18">
-        <v>9.148963565902225</v>
+        <v>9.148963565902108</v>
       </c>
       <c r="F18">
-        <v>69.83529536720258</v>
+        <v>69.83529536720249</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12.34330915644814</v>
+        <v>12.34330915644819</v>
       </c>
       <c r="I18">
-        <v>5.150646812734052</v>
+        <v>5.150646812733949</v>
       </c>
       <c r="J18">
-        <v>58.13970912795584</v>
+        <v>58.13970912795575</v>
       </c>
       <c r="K18">
         <v>44.81648660985067</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.93926734816724</v>
+        <v>16.93926734816726</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.170884203535161</v>
+        <v>9.170884203535037</v>
       </c>
       <c r="E19">
-        <v>9.106003481275177</v>
+        <v>9.106003481275291</v>
       </c>
       <c r="F19">
-        <v>69.41327599178184</v>
+        <v>69.41327599178202</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12.3541136090916</v>
+        <v>12.3541136090915</v>
       </c>
       <c r="I19">
-        <v>5.151457987815483</v>
+        <v>5.151457987815617</v>
       </c>
       <c r="J19">
-        <v>57.8195963692965</v>
+        <v>57.81959636929658</v>
       </c>
       <c r="K19">
-        <v>44.56291246746355</v>
+        <v>44.56291246746359</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.30288386594816</v>
+        <v>17.30288386594815</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.450301920604256</v>
+        <v>9.450301920604419</v>
       </c>
       <c r="E20">
-        <v>9.300946111045013</v>
+        <v>9.300946111044999</v>
       </c>
       <c r="F20">
-        <v>71.32185116490393</v>
+        <v>71.32185116490398</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12.31172968784888</v>
+        <v>12.31172968784891</v>
       </c>
       <c r="I20">
-        <v>5.148290391998908</v>
+        <v>5.148290391998774</v>
       </c>
       <c r="J20">
-        <v>59.26226006308835</v>
+        <v>59.26226006308843</v>
       </c>
       <c r="K20">
-        <v>45.70637713461391</v>
+        <v>45.70637713461399</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51126371981171</v>
+        <v>18.51126371981174</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.42878236161949</v>
+        <v>10.42878236161952</v>
       </c>
       <c r="E21">
-        <v>9.993270994285307</v>
+        <v>9.993270994285423</v>
       </c>
       <c r="F21">
-        <v>77.959773890639</v>
+        <v>77.95977389063931</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12.29838093375156</v>
+        <v>12.29838093375159</v>
       </c>
       <c r="I21">
-        <v>5.148033791778997</v>
+        <v>5.148033791779099</v>
       </c>
       <c r="J21">
-        <v>64.18366335776808</v>
+        <v>64.18366335776822</v>
       </c>
       <c r="K21">
-        <v>49.6202921473744</v>
+        <v>49.62029214737447</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29835980444236</v>
+        <v>19.29835980444229</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.1151230866717</v>
+        <v>11.11512308667169</v>
       </c>
       <c r="E22">
-        <v>10.48864264453734</v>
+        <v>10.48864264453733</v>
       </c>
       <c r="F22">
-        <v>82.56452423233779</v>
+        <v>82.56452423233782</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12.4158986232095</v>
+        <v>12.41589862320954</v>
       </c>
       <c r="I22">
-        <v>5.158908134598354</v>
+        <v>5.158908134598321</v>
       </c>
       <c r="J22">
         <v>67.5158739194582</v>
       </c>
       <c r="K22">
-        <v>52.28207046048009</v>
+        <v>52.28207046048012</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.87791878285708</v>
+        <v>18.87791878285712</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.74308904700004</v>
+        <v>10.74308904700014</v>
       </c>
       <c r="E23">
         <v>10.21906093223804</v>
       </c>
       <c r="F23">
-        <v>80.07432047310867</v>
+        <v>80.07432047310857</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>12.3392849647597</v>
       </c>
       <c r="I23">
-        <v>5.151811620948197</v>
+        <v>5.151811620948131</v>
       </c>
       <c r="J23">
-        <v>65.72181317939184</v>
+        <v>65.7218131793918</v>
       </c>
       <c r="K23">
-        <v>50.84778925935878</v>
+        <v>50.84778925935871</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.28298032402457</v>
+        <v>17.2829803240246</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.434841983114103</v>
+        <v>9.43484198311414</v>
       </c>
       <c r="E24">
-        <v>9.290129113665493</v>
+        <v>9.29012911366538</v>
       </c>
       <c r="F24">
-        <v>71.21638490444792</v>
+        <v>71.21638490444761</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12.31363454278249</v>
+        <v>12.3136345427824</v>
       </c>
       <c r="I24">
-        <v>5.148431457087726</v>
+        <v>5.148431457087627</v>
       </c>
       <c r="J24">
-        <v>59.18287461646742</v>
+        <v>59.18287461646725</v>
       </c>
       <c r="K24">
-        <v>45.64341062771767</v>
+        <v>45.64341062771754</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.51025218729079</v>
+        <v>15.51025218729076</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.128501016059452</v>
+        <v>8.128501016059523</v>
       </c>
       <c r="E25">
-        <v>8.38901458327283</v>
+        <v>8.389014583272896</v>
       </c>
       <c r="F25">
-        <v>62.2572939595515</v>
+        <v>62.25729395955169</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.65476515389662</v>
+        <v>12.6547651538967</v>
       </c>
       <c r="I25">
         <v>5.174101368908665</v>
       </c>
       <c r="J25">
-        <v>52.2889889967127</v>
+        <v>52.28898899671275</v>
       </c>
       <c r="K25">
-        <v>40.1950924385537</v>
+        <v>40.19509243855379</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13208982939566</v>
+        <v>14.13208982939565</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.194108971860926</v>
+        <v>7.194108971860927</v>
       </c>
       <c r="E2">
-        <v>7.760245621295449</v>
+        <v>7.760245621295388</v>
       </c>
       <c r="F2">
-        <v>55.82001530367224</v>
+        <v>55.82001530367219</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>13.09633565173985</v>
+        <v>13.09633565173984</v>
       </c>
       <c r="I2">
-        <v>5.207350808318254</v>
+        <v>5.207350808318219</v>
       </c>
       <c r="J2">
-        <v>47.12793099369914</v>
+        <v>47.12793099369911</v>
       </c>
       <c r="K2">
-        <v>36.14087230698495</v>
+        <v>36.14087230698493</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.14400631406039</v>
+        <v>13.14400631406041</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.559793367438179</v>
+        <v>6.559793367438164</v>
       </c>
       <c r="E3">
-        <v>7.341670326184116</v>
+        <v>7.341670326184237</v>
       </c>
       <c r="F3">
-        <v>51.48069429519219</v>
+        <v>51.48069429519231</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.47406572555226</v>
+        <v>13.4740657255523</v>
       </c>
       <c r="I3">
-        <v>5.236004691852126</v>
+        <v>5.236004691852226</v>
       </c>
       <c r="J3">
-        <v>43.51150007401624</v>
+        <v>43.51150007401636</v>
       </c>
       <c r="K3">
-        <v>33.31193537772892</v>
+        <v>33.31193537772904</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.5085877945828</v>
+        <v>12.50858779458281</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.16568828243837</v>
+        <v>6.165688282438373</v>
       </c>
       <c r="E4">
-        <v>7.085452845137556</v>
+        <v>7.085452845137788</v>
       </c>
       <c r="F4">
-        <v>48.95654099726276</v>
+        <v>48.95654099726283</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>13.73547866582538</v>
+        <v>13.73547866582541</v>
       </c>
       <c r="I4">
-        <v>5.256035011887747</v>
+        <v>5.256035011887917</v>
       </c>
       <c r="J4">
-        <v>41.21732567197413</v>
+        <v>41.21732567197421</v>
       </c>
       <c r="K4">
-        <v>31.52222602717117</v>
+        <v>31.5222260271712</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.24217536151291</v>
+        <v>12.24217536151288</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.003440740106107</v>
+        <v>6.003440740106166</v>
       </c>
       <c r="E5">
-        <v>6.980921961361982</v>
+        <v>6.980921961362045</v>
       </c>
       <c r="F5">
-        <v>47.92631762872648</v>
+        <v>47.92631762872651</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13.84835435526529</v>
+        <v>13.84835435526535</v>
       </c>
       <c r="I5">
-        <v>5.264745794106821</v>
+        <v>5.264745794106853</v>
       </c>
       <c r="J5">
-        <v>40.26210111379556</v>
+        <v>40.26210111379563</v>
       </c>
       <c r="K5">
-        <v>30.77814136855378</v>
+        <v>30.77814136855386</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19747980881491</v>
+        <v>12.19747980881486</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.976387885408043</v>
+        <v>5.976387885407999</v>
       </c>
       <c r="E6">
-        <v>6.963549717850228</v>
+        <v>6.96354971785011</v>
       </c>
       <c r="F6">
-        <v>47.75511417368364</v>
+        <v>47.75511417368365</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13.86745387717533</v>
+        <v>13.86745387717547</v>
       </c>
       <c r="I6">
-        <v>5.266223732461767</v>
+        <v>5.266223732461632</v>
       </c>
       <c r="J6">
-        <v>40.10221206990218</v>
+        <v>40.10221206990207</v>
       </c>
       <c r="K6">
         <v>30.65365599255077</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.50502542726764</v>
+        <v>12.50502542726758</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.163507390709869</v>
+        <v>6.163507390709887</v>
       </c>
       <c r="E7">
-        <v>7.084043950710524</v>
+        <v>7.084043950710589</v>
       </c>
       <c r="F7">
-        <v>48.94265539347295</v>
+        <v>48.94265539347298</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13.73697648432263</v>
+        <v>13.73697648432273</v>
       </c>
       <c r="I7">
-        <v>5.256150342515375</v>
+        <v>5.256150342515409</v>
       </c>
       <c r="J7">
-        <v>41.20452765116521</v>
+        <v>41.20452765116518</v>
       </c>
       <c r="K7">
-        <v>31.51225261388387</v>
+        <v>31.51225261388388</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.79719782912193</v>
+        <v>13.79719782912198</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.976036312110436</v>
+        <v>6.976036312110358</v>
       </c>
       <c r="E8">
-        <v>7.615535639488938</v>
+        <v>7.615535639488812</v>
       </c>
       <c r="F8">
-        <v>54.31881419850967</v>
+        <v>54.31881419850973</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>13.21973577338327</v>
       </c>
       <c r="I8">
-        <v>5.216680655302342</v>
+        <v>5.216680655302375</v>
       </c>
       <c r="J8">
-        <v>45.89508016522512</v>
+        <v>45.8950801652251</v>
       </c>
       <c r="K8">
         <v>35.17540166799644</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.11730278130241</v>
+        <v>16.11730278130234</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.561185655519074</v>
+        <v>8.561185655519058</v>
       </c>
       <c r="E9">
-        <v>8.684680638428684</v>
+        <v>8.684680638428627</v>
       </c>
       <c r="F9">
-        <v>65.23329260125723</v>
+        <v>65.23329260125725</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.50359134639395</v>
+        <v>12.50359134639402</v>
       </c>
       <c r="I9">
-        <v>5.162720762250273</v>
+        <v>5.162720762250238</v>
       </c>
       <c r="J9">
-        <v>54.61337232983339</v>
+        <v>54.61337232983335</v>
       </c>
       <c r="K9">
-        <v>42.0277755924829</v>
+        <v>42.02777559248293</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.71818492007044</v>
+        <v>17.71818492007041</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.777476189763251</v>
+        <v>9.777476189763213</v>
       </c>
       <c r="E10">
-        <v>9.530729557770892</v>
+        <v>9.530729557770886</v>
       </c>
       <c r="F10">
-        <v>73.54982698972525</v>
+        <v>73.54982698972512</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12.28366957575374</v>
+        <v>12.2836695757537</v>
       </c>
       <c r="I10">
         <v>5.146272907237788</v>
       </c>
       <c r="J10">
-        <v>60.93034863988844</v>
+        <v>60.93034863988834</v>
       </c>
       <c r="K10">
-        <v>47.0306850485004</v>
+        <v>47.03068504850034</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43329792392155</v>
+        <v>18.43329792392156</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.36308234296995</v>
+        <v>10.36308234296979</v>
       </c>
       <c r="E11">
-        <v>9.946291801962809</v>
+        <v>9.946291801962801</v>
       </c>
       <c r="F11">
-        <v>77.51659225193106</v>
+        <v>77.51659225193083</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12.29260908435491</v>
+        <v>12.29260908435488</v>
       </c>
       <c r="I11">
-        <v>5.14749173582657</v>
+        <v>5.147491735826669</v>
       </c>
       <c r="J11">
-        <v>63.85953141676914</v>
+        <v>63.85953141676908</v>
       </c>
       <c r="K11">
-        <v>49.36188177077216</v>
+        <v>49.36188177077206</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.70344967781697</v>
+        <v>18.70344967781693</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.59240861088583</v>
+        <v>10.59240861088589</v>
       </c>
       <c r="E12">
-        <v>10.11059805504735</v>
+        <v>10.11059805504742</v>
       </c>
       <c r="F12">
         <v>79.06177558639638</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12.31693590470963</v>
+        <v>12.31693590470961</v>
       </c>
       <c r="I12">
-        <v>5.149753289273712</v>
+        <v>5.149753289273711</v>
       </c>
       <c r="J12">
-        <v>64.98698976820143</v>
+        <v>64.98698976820145</v>
       </c>
       <c r="K12">
         <v>50.26112197219666</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.64526984284908</v>
+        <v>18.64526984284915</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.54261877456397</v>
+        <v>10.54261877456393</v>
       </c>
       <c r="E13">
-        <v>10.07484703831711</v>
+        <v>10.07484703831707</v>
       </c>
       <c r="F13">
-        <v>78.72671475895848</v>
+        <v>78.72671475895885</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12.31065903878236</v>
+        <v>12.31065903878245</v>
       </c>
       <c r="I13">
-        <v>5.149173771650437</v>
+        <v>5.149173771650439</v>
       </c>
       <c r="J13">
-        <v>64.74313799375396</v>
+        <v>64.74313799375415</v>
       </c>
       <c r="K13">
-        <v>50.06653808329978</v>
+        <v>50.0665380833</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.45552710725794</v>
+        <v>18.45552710725784</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.38177515689114</v>
+        <v>10.38177515689118</v>
       </c>
       <c r="E14">
-        <v>9.959650677759276</v>
+        <v>9.959650677759154</v>
       </c>
       <c r="F14">
-        <v>77.64272540213791</v>
+        <v>77.64272540213743</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>12.29415329758975</v>
+        <v>12.29415329758977</v>
       </c>
       <c r="I14">
-        <v>5.14763739432941</v>
+        <v>5.147637394329311</v>
       </c>
       <c r="J14">
-        <v>63.95184470668168</v>
+        <v>63.95184470668137</v>
       </c>
       <c r="K14">
-        <v>49.43546831011999</v>
+        <v>49.43546831011978</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33926716443402</v>
+        <v>18.33926716443397</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.28435215419587</v>
+        <v>10.28435215419584</v>
       </c>
       <c r="E15">
-        <v>9.890092325055983</v>
+        <v>9.890092325056118</v>
       </c>
       <c r="F15">
-        <v>76.98499967717289</v>
+        <v>76.98499967717299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>12.28696075229043</v>
+        <v>12.28696075229048</v>
       </c>
       <c r="I15">
-        <v>5.146952511650002</v>
+        <v>5.146952511650171</v>
       </c>
       <c r="J15">
-        <v>63.46992328749379</v>
+        <v>63.46992328749389</v>
       </c>
       <c r="K15">
-        <v>49.05139006206883</v>
+        <v>49.0513900620689</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.67127999907237</v>
+        <v>17.67127999907232</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.740073997542916</v>
+        <v>9.740073997543018</v>
       </c>
       <c r="E16">
-        <v>9.50437636691716</v>
+        <v>9.504376366917185</v>
       </c>
       <c r="F16">
-        <v>73.29552629759928</v>
+        <v>73.29552629759897</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12.28568641891924</v>
+        <v>12.28568641891918</v>
       </c>
       <c r="I16">
-        <v>5.146408563959663</v>
+        <v>5.146408563959597</v>
       </c>
       <c r="J16">
-        <v>60.74080502293904</v>
+        <v>60.74080502293887</v>
       </c>
       <c r="K16">
-        <v>46.88008703623606</v>
+        <v>46.88008703623596</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.25884910535513</v>
+        <v>17.25884910535505</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.416124419615214</v>
+        <v>9.416124419615194</v>
       </c>
       <c r="E17">
-        <v>9.277037712751794</v>
+        <v>9.277037712751728</v>
       </c>
       <c r="F17">
-        <v>71.08867376077384</v>
+        <v>71.08867376077397</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12.31601019207993</v>
+        <v>12.31601019207999</v>
       </c>
       <c r="I17">
         <v>5.148607672177746</v>
@@ -1009,7 +1009,7 @@
         <v>59.08669333144891</v>
       </c>
       <c r="K17">
-        <v>45.56712914627381</v>
+        <v>45.56712914627388</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02029587760143</v>
+        <v>17.02029587760147</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.232605849113035</v>
+        <v>9.232605849113057</v>
       </c>
       <c r="E18">
-        <v>9.148963565902108</v>
+        <v>9.148963565902225</v>
       </c>
       <c r="F18">
-        <v>69.83529536720249</v>
+        <v>69.83529536720258</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12.34330915644819</v>
+        <v>12.34330915644814</v>
       </c>
       <c r="I18">
-        <v>5.150646812733949</v>
+        <v>5.150646812734052</v>
       </c>
       <c r="J18">
-        <v>58.13970912795575</v>
+        <v>58.13970912795584</v>
       </c>
       <c r="K18">
         <v>44.81648660985067</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.93926734816726</v>
+        <v>16.93926734816724</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.170884203535037</v>
+        <v>9.170884203535161</v>
       </c>
       <c r="E19">
-        <v>9.106003481275291</v>
+        <v>9.106003481275177</v>
       </c>
       <c r="F19">
-        <v>69.41327599178202</v>
+        <v>69.41327599178184</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12.3541136090915</v>
+        <v>12.3541136090916</v>
       </c>
       <c r="I19">
-        <v>5.151457987815617</v>
+        <v>5.151457987815483</v>
       </c>
       <c r="J19">
-        <v>57.81959636929658</v>
+        <v>57.8195963692965</v>
       </c>
       <c r="K19">
-        <v>44.56291246746359</v>
+        <v>44.56291246746355</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.30288386594815</v>
+        <v>17.30288386594816</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.450301920604419</v>
+        <v>9.450301920604256</v>
       </c>
       <c r="E20">
-        <v>9.300946111044999</v>
+        <v>9.300946111045013</v>
       </c>
       <c r="F20">
-        <v>71.32185116490398</v>
+        <v>71.32185116490393</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12.31172968784891</v>
+        <v>12.31172968784888</v>
       </c>
       <c r="I20">
-        <v>5.148290391998774</v>
+        <v>5.148290391998908</v>
       </c>
       <c r="J20">
-        <v>59.26226006308843</v>
+        <v>59.26226006308835</v>
       </c>
       <c r="K20">
-        <v>45.70637713461399</v>
+        <v>45.70637713461391</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51126371981174</v>
+        <v>18.51126371981171</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.42878236161952</v>
+        <v>10.42878236161949</v>
       </c>
       <c r="E21">
-        <v>9.993270994285423</v>
+        <v>9.993270994285307</v>
       </c>
       <c r="F21">
-        <v>77.95977389063931</v>
+        <v>77.959773890639</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>12.29838093375159</v>
+        <v>12.29838093375156</v>
       </c>
       <c r="I21">
-        <v>5.148033791779099</v>
+        <v>5.148033791778997</v>
       </c>
       <c r="J21">
-        <v>64.18366335776822</v>
+        <v>64.18366335776808</v>
       </c>
       <c r="K21">
-        <v>49.62029214737447</v>
+        <v>49.6202921473744</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29835980444229</v>
+        <v>19.29835980444236</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.11512308667169</v>
+        <v>11.1151230866717</v>
       </c>
       <c r="E22">
-        <v>10.48864264453733</v>
+        <v>10.48864264453734</v>
       </c>
       <c r="F22">
-        <v>82.56452423233782</v>
+        <v>82.56452423233779</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12.41589862320954</v>
+        <v>12.4158986232095</v>
       </c>
       <c r="I22">
-        <v>5.158908134598321</v>
+        <v>5.158908134598354</v>
       </c>
       <c r="J22">
         <v>67.5158739194582</v>
       </c>
       <c r="K22">
-        <v>52.28207046048012</v>
+        <v>52.28207046048009</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.87791878285712</v>
+        <v>18.87791878285708</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.74308904700014</v>
+        <v>10.74308904700004</v>
       </c>
       <c r="E23">
         <v>10.21906093223804</v>
       </c>
       <c r="F23">
-        <v>80.07432047310857</v>
+        <v>80.07432047310867</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>12.3392849647597</v>
       </c>
       <c r="I23">
-        <v>5.151811620948131</v>
+        <v>5.151811620948197</v>
       </c>
       <c r="J23">
-        <v>65.7218131793918</v>
+        <v>65.72181317939184</v>
       </c>
       <c r="K23">
-        <v>50.84778925935871</v>
+        <v>50.84778925935878</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.2829803240246</v>
+        <v>17.28298032402457</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.43484198311414</v>
+        <v>9.434841983114103</v>
       </c>
       <c r="E24">
-        <v>9.29012911366538</v>
+        <v>9.290129113665493</v>
       </c>
       <c r="F24">
-        <v>71.21638490444761</v>
+        <v>71.21638490444792</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12.3136345427824</v>
+        <v>12.31363454278249</v>
       </c>
       <c r="I24">
-        <v>5.148431457087627</v>
+        <v>5.148431457087726</v>
       </c>
       <c r="J24">
-        <v>59.18287461646725</v>
+        <v>59.18287461646742</v>
       </c>
       <c r="K24">
-        <v>45.64341062771754</v>
+        <v>45.64341062771767</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.51025218729076</v>
+        <v>15.51025218729079</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.128501016059523</v>
+        <v>8.128501016059452</v>
       </c>
       <c r="E25">
-        <v>8.389014583272896</v>
+        <v>8.38901458327283</v>
       </c>
       <c r="F25">
-        <v>62.25729395955169</v>
+        <v>62.2572939595515</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>12.6547651538967</v>
+        <v>12.65476515389662</v>
       </c>
       <c r="I25">
         <v>5.174101368908665</v>
       </c>
       <c r="J25">
-        <v>52.28898899671275</v>
+        <v>52.2889889967127</v>
       </c>
       <c r="K25">
-        <v>40.19509243855379</v>
+        <v>40.1950924385537</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13208982939565</v>
+        <v>14.09292771201541</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.194108971860927</v>
+        <v>7.0823782801271</v>
       </c>
       <c r="E2">
-        <v>7.760245621295388</v>
+        <v>7.517423468110455</v>
       </c>
       <c r="F2">
-        <v>55.82001530367219</v>
+        <v>55.60362636869863</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.961227921089383</v>
       </c>
       <c r="H2">
-        <v>13.09633565173984</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.207350808318219</v>
+        <v>13.26716637959371</v>
       </c>
       <c r="J2">
-        <v>47.12793099369911</v>
+        <v>5.106155702775457</v>
       </c>
       <c r="K2">
-        <v>36.14087230698493</v>
+        <v>46.8165081323709</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>35.91685582110492</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.14400631406041</v>
+        <v>13.10670867906642</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.559793367438164</v>
+        <v>6.458181545225681</v>
       </c>
       <c r="E3">
-        <v>7.341670326184237</v>
+        <v>7.096132226432755</v>
       </c>
       <c r="F3">
-        <v>51.48069429519231</v>
+        <v>51.43383267057429</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.986605425536417</v>
       </c>
       <c r="H3">
-        <v>13.4740657255523</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.236004691852226</v>
+        <v>13.65479762347378</v>
       </c>
       <c r="J3">
-        <v>43.51150007401636</v>
+        <v>5.134144738246873</v>
       </c>
       <c r="K3">
-        <v>33.31193537772904</v>
+        <v>43.22139058274893</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>33.1060863853625</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.50858779458281</v>
+        <v>12.47236284611342</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.165688282438373</v>
+        <v>6.109931112906232</v>
       </c>
       <c r="E4">
-        <v>7.085452845137788</v>
+        <v>6.837574769796842</v>
       </c>
       <c r="F4">
-        <v>48.95654099726283</v>
+        <v>48.96344643501392</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.002081701658248</v>
       </c>
       <c r="H4">
-        <v>13.73547866582541</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5.256035011887917</v>
+        <v>13.92136011992747</v>
       </c>
       <c r="J4">
-        <v>41.21732567197421</v>
+        <v>5.153720288538557</v>
       </c>
       <c r="K4">
-        <v>31.5222260271712</v>
+        <v>40.94004703015666</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>31.32743436102976</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.24217536151288</v>
+        <v>12.20637326775875</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.003440740106166</v>
+        <v>5.996163018266015</v>
       </c>
       <c r="E5">
-        <v>6.980921961362045</v>
+        <v>6.731931441304918</v>
       </c>
       <c r="F5">
-        <v>47.92631762872651</v>
+        <v>47.95622975438364</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.008385868753631</v>
       </c>
       <c r="H5">
-        <v>13.84835435526535</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5.264745794106853</v>
+        <v>14.03615218837386</v>
       </c>
       <c r="J5">
-        <v>40.26210111379563</v>
+        <v>5.162235883301154</v>
       </c>
       <c r="K5">
-        <v>30.77814136855386</v>
+        <v>39.99003596179027</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>30.58787366163433</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.19747980881486</v>
+        <v>12.16174715359144</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.976387885407999</v>
+        <v>5.977385980260863</v>
       </c>
       <c r="E6">
-        <v>6.96354971785011</v>
+        <v>6.714365134195523</v>
       </c>
       <c r="F6">
-        <v>47.75511417368365</v>
+        <v>47.78891591564368</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.00943313742082</v>
       </c>
       <c r="H6">
-        <v>13.86745387717547</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5.266223732461632</v>
+        <v>14.05556024702739</v>
       </c>
       <c r="J6">
-        <v>40.10221206990207</v>
+        <v>5.163680858049507</v>
       </c>
       <c r="K6">
-        <v>30.65365599255077</v>
+        <v>39.83101293380341</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>30.46414166911813</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.50502542726758</v>
+        <v>12.46880623530055</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.163507390709887</v>
+        <v>6.10838901713404</v>
       </c>
       <c r="E7">
-        <v>7.084043950710589</v>
+        <v>6.836151504180045</v>
       </c>
       <c r="F7">
-        <v>48.94265539347298</v>
+        <v>48.94986652328191</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.002166703594344</v>
       </c>
       <c r="H7">
-        <v>13.73697648432273</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>5.256150342515409</v>
+        <v>13.92288445969943</v>
       </c>
       <c r="J7">
-        <v>41.20452765116518</v>
+        <v>5.153833024736517</v>
       </c>
       <c r="K7">
-        <v>31.51225261388388</v>
+        <v>40.9273193246695</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>31.31752183612419</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.79719782912198</v>
+        <v>13.7586963741692</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.976036312110358</v>
+        <v>6.867730863397595</v>
       </c>
       <c r="E8">
-        <v>7.615535639488812</v>
+        <v>7.371923629729031</v>
       </c>
       <c r="F8">
-        <v>54.31881419850973</v>
+        <v>54.12712139577807</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.970015982246734</v>
       </c>
       <c r="H8">
-        <v>13.21973577338327</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>5.216680655302375</v>
+        <v>13.39420788593863</v>
       </c>
       <c r="J8">
-        <v>45.8950801652251</v>
+        <v>5.115267291086864</v>
       </c>
       <c r="K8">
-        <v>35.17540166799644</v>
+        <v>45.59109264674289</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>34.95769815732709</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.11730278130234</v>
+        <v>16.07346974782693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.561185655519058</v>
+        <v>8.428528215989871</v>
       </c>
       <c r="E9">
-        <v>8.684680638428627</v>
+        <v>8.443442142331795</v>
       </c>
       <c r="F9">
-        <v>65.23329260125725</v>
+        <v>64.87032948079145</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.904725361323132</v>
       </c>
       <c r="H9">
-        <v>12.50359134639402</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5.162720762250238</v>
+        <v>12.64527650071859</v>
       </c>
       <c r="J9">
-        <v>54.61337232983335</v>
+        <v>5.062577738088184</v>
       </c>
       <c r="K9">
-        <v>42.02777559248293</v>
+        <v>54.25172544147485</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>41.76162755293337</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.71818492007041</v>
+        <v>17.66921306786072</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.777476189763213</v>
+        <v>9.625627293513869</v>
       </c>
       <c r="E10">
-        <v>9.530729557770886</v>
+        <v>9.285889986053341</v>
       </c>
       <c r="F10">
-        <v>73.54982698972512</v>
+        <v>73.0590042883029</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.852633803943734</v>
       </c>
       <c r="H10">
-        <v>12.2836695757537</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5.146272907237788</v>
+        <v>12.38948120605758</v>
       </c>
       <c r="J10">
-        <v>60.93034863988834</v>
+        <v>5.046415979412581</v>
       </c>
       <c r="K10">
-        <v>47.03068504850034</v>
+        <v>60.51614465627632</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>46.72105589615803</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.43329792392156</v>
+        <v>18.38139202470685</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.36308234296979</v>
+        <v>10.2012477762087</v>
       </c>
       <c r="E11">
-        <v>9.946291801962801</v>
+        <v>9.69784416269817</v>
       </c>
       <c r="F11">
-        <v>77.51659225193083</v>
+        <v>76.96146622873766</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.827033844534727</v>
       </c>
       <c r="H11">
-        <v>12.29260908435488</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5.147491735826669</v>
+        <v>12.37776570487108</v>
       </c>
       <c r="J11">
-        <v>63.85953141676908</v>
+        <v>5.047451966339264</v>
       </c>
       <c r="K11">
-        <v>49.36188177077206</v>
+        <v>63.41602179061376</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>49.02816526004507</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.70344967781693</v>
+        <v>18.65029116511739</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.59240861088589</v>
+        <v>10.42645549093567</v>
       </c>
       <c r="E12">
-        <v>10.11059805504742</v>
+        <v>9.860361443098501</v>
       </c>
       <c r="F12">
-        <v>79.06177558639638</v>
+        <v>78.48051829639363</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.816928310996726</v>
       </c>
       <c r="H12">
-        <v>12.31693590470961</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.149753289273711</v>
+        <v>12.39342274136851</v>
       </c>
       <c r="J12">
-        <v>64.98698976820145</v>
+        <v>5.049568527437138</v>
       </c>
       <c r="K12">
-        <v>50.26112197219666</v>
+        <v>64.53107872102829</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>49.91723607463392</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.64526984284915</v>
+        <v>18.59238875446009</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.54261877456393</v>
+        <v>10.37757142044815</v>
       </c>
       <c r="E13">
-        <v>10.07484703831707</v>
+        <v>9.825017935841961</v>
       </c>
       <c r="F13">
-        <v>78.72671475895885</v>
+        <v>78.1511859054977</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.819125983422903</v>
       </c>
       <c r="H13">
-        <v>12.31065903878245</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5.149173771650439</v>
+        <v>12.38905560514231</v>
       </c>
       <c r="J13">
-        <v>64.74313799375415</v>
+        <v>5.049024374996159</v>
       </c>
       <c r="K13">
-        <v>50.0665380833</v>
+        <v>64.28996857719945</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>49.7248993096558</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.45552710725784</v>
+        <v>18.40352146147039</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.38177515689118</v>
+        <v>10.21960981737026</v>
       </c>
       <c r="E14">
-        <v>9.959650677759154</v>
+        <v>9.711065514621414</v>
       </c>
       <c r="F14">
-        <v>77.64272540213743</v>
+        <v>77.08549265871223</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.826211741280128</v>
       </c>
       <c r="H14">
-        <v>12.29415329758977</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.147637394329311</v>
+        <v>12.37861533195556</v>
       </c>
       <c r="J14">
-        <v>63.95184470668137</v>
+        <v>5.047587480245048</v>
       </c>
       <c r="K14">
-        <v>49.43546831011978</v>
+        <v>63.50734536680319</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>49.10093975013968</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.33926716443397</v>
+        <v>18.28777696972361</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.28435215419584</v>
+        <v>10.12390168947831</v>
       </c>
       <c r="E15">
-        <v>9.890092325056118</v>
+        <v>9.642208147424673</v>
       </c>
       <c r="F15">
-        <v>76.98499967717299</v>
+        <v>76.43870473989547</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.830493139951448</v>
       </c>
       <c r="H15">
-        <v>12.28696075229048</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.146952511650171</v>
+        <v>12.37501910905622</v>
       </c>
       <c r="J15">
-        <v>63.46992328749389</v>
+        <v>5.046952342851199</v>
       </c>
       <c r="K15">
-        <v>49.0513900620689</v>
+        <v>63.03054267341659</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>48.72106228285984</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.67127999907232</v>
+        <v>17.62248395300189</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.740073997543018</v>
+        <v>9.588841282611877</v>
       </c>
       <c r="E16">
-        <v>9.504376366917185</v>
+        <v>9.259723164984624</v>
       </c>
       <c r="F16">
-        <v>73.29552629759897</v>
+        <v>72.80871821598473</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.854258190562747</v>
       </c>
       <c r="H16">
-        <v>12.28568641891918</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5.146408563959597</v>
+        <v>12.39274363076484</v>
       </c>
       <c r="J16">
-        <v>60.74080502293887</v>
+        <v>5.046555150734946</v>
       </c>
       <c r="K16">
-        <v>46.88008703623596</v>
+        <v>60.32837023667311</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>46.57191499163167</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.25884910535505</v>
+        <v>17.21152393358577</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.416124419615194</v>
+        <v>9.270142047563288</v>
       </c>
       <c r="E17">
-        <v>9.277037712751728</v>
+        <v>9.033789937837707</v>
       </c>
       <c r="F17">
-        <v>71.08867376077397</v>
+        <v>70.63630708931976</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.868270482393956</v>
       </c>
       <c r="H17">
-        <v>12.31601019207999</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5.148607672177746</v>
+        <v>12.43347997974089</v>
       </c>
       <c r="J17">
-        <v>59.08669333144891</v>
+        <v>5.048748477902489</v>
       </c>
       <c r="K17">
-        <v>45.56712914627388</v>
+        <v>58.68912934805321</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>45.2712202874273</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02029587760147</v>
+        <v>16.97376526432364</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.232605849113057</v>
+        <v>9.08953816282119</v>
       </c>
       <c r="E18">
-        <v>9.148963565902225</v>
+        <v>8.906350505715563</v>
       </c>
       <c r="F18">
-        <v>69.83529536720258</v>
+        <v>69.40223462086256</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.876161732371305</v>
       </c>
       <c r="H18">
-        <v>12.34330915644814</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.150646812734052</v>
+        <v>12.46637689602858</v>
       </c>
       <c r="J18">
-        <v>58.13970912795584</v>
+        <v>5.050757448370438</v>
       </c>
       <c r="K18">
-        <v>44.81648660985067</v>
+        <v>57.7502345592812</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>44.52726155177321</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.93926734816724</v>
+        <v>16.89299807311765</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.170884203535161</v>
+        <v>9.028788602433339</v>
       </c>
       <c r="E19">
-        <v>9.106003481275177</v>
+        <v>8.863578338558398</v>
       </c>
       <c r="F19">
-        <v>69.41327599178184</v>
+        <v>68.9866844121637</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.878807900001366</v>
       </c>
       <c r="H19">
-        <v>12.3541136090916</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5.151457987815483</v>
+        <v>12.47901495269213</v>
       </c>
       <c r="J19">
-        <v>57.8195963692965</v>
+        <v>5.051554410253729</v>
       </c>
       <c r="K19">
-        <v>44.56291246746355</v>
+        <v>57.43279202835252</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>44.2758958543</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.30288386594816</v>
+        <v>17.2554077316747</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.450301920604256</v>
+        <v>9.303772350236637</v>
       </c>
       <c r="E20">
-        <v>9.300946111045013</v>
+        <v>9.057567414088863</v>
       </c>
       <c r="F20">
-        <v>71.32185116490393</v>
+        <v>70.86587506697775</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.866797060791684</v>
       </c>
       <c r="H20">
-        <v>12.31172968784888</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>5.148290391998908</v>
+        <v>12.42813284246266</v>
       </c>
       <c r="J20">
-        <v>59.26226006308835</v>
+        <v>5.048434746436705</v>
       </c>
       <c r="K20">
-        <v>45.70637713461391</v>
+        <v>58.86316382357805</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>45.40920333802298</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.51126371981171</v>
+        <v>18.45900543096833</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.42878236161949</v>
+        <v>10.2657814728803</v>
       </c>
       <c r="E21">
-        <v>9.993270994285307</v>
+        <v>9.744333576877359</v>
       </c>
       <c r="F21">
-        <v>77.959773890639</v>
+        <v>77.39722580244384</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.824143095413143</v>
       </c>
       <c r="H21">
-        <v>12.29838093375156</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.148033791778997</v>
+        <v>12.38108675552765</v>
       </c>
       <c r="J21">
-        <v>64.18366335776808</v>
+        <v>5.047957083205663</v>
       </c>
       <c r="K21">
-        <v>49.6202921473744</v>
+        <v>63.73665895576364</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>49.28370858367963</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29835980444236</v>
+        <v>19.24208586489365</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11.1151230866717</v>
+        <v>10.93921222348709</v>
       </c>
       <c r="E22">
-        <v>10.48864264453734</v>
+        <v>10.23344253001467</v>
       </c>
       <c r="F22">
-        <v>82.56452423233779</v>
+        <v>81.92093160476263</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.793742768864876</v>
       </c>
       <c r="H22">
-        <v>12.4158986232095</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.158908134598354</v>
+        <v>12.47142848564258</v>
       </c>
       <c r="J22">
-        <v>67.5158739194582</v>
+        <v>5.058207396816252</v>
       </c>
       <c r="K22">
-        <v>52.28207046048009</v>
+        <v>67.0293468497279</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>51.91312644355677</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.87791878285708</v>
+        <v>18.82390125920008</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.74308904700004</v>
+        <v>10.57435268394024</v>
       </c>
       <c r="E23">
-        <v>10.21906093223804</v>
+        <v>9.967524327925441</v>
       </c>
       <c r="F23">
-        <v>80.07432047310867</v>
+        <v>79.47552380263632</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.810265577128127</v>
       </c>
       <c r="H23">
-        <v>12.3392849647597</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.151811620948197</v>
+        <v>12.40990030276402</v>
       </c>
       <c r="J23">
-        <v>65.72181317939184</v>
+        <v>5.051505993618779</v>
       </c>
       <c r="K23">
-        <v>50.84778925935878</v>
+        <v>65.25742991324047</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>50.49696283004489</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.28298032402457</v>
+        <v>17.2355725954316</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.434841983114103</v>
+        <v>9.288560114469826</v>
       </c>
       <c r="E24">
-        <v>9.290129113665493</v>
+        <v>9.046810137544089</v>
       </c>
       <c r="F24">
-        <v>71.21638490444792</v>
+        <v>70.76204211229522</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.867463698102604</v>
       </c>
       <c r="H24">
-        <v>12.31363454278249</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5.148431457087726</v>
+        <v>12.43052111670002</v>
       </c>
       <c r="J24">
-        <v>59.18287461646742</v>
+        <v>5.0485742888631</v>
       </c>
       <c r="K24">
-        <v>45.64341062771767</v>
+        <v>58.7844725092873</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>45.34680982374722</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.51025218729079</v>
+        <v>15.46800494782902</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.128501016059452</v>
+        <v>8.002438201566969</v>
       </c>
       <c r="E25">
-        <v>8.38901458327283</v>
+        <v>8.147901862038658</v>
       </c>
       <c r="F25">
-        <v>62.2572939595515</v>
+        <v>61.93969801373248</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.922860347439713</v>
       </c>
       <c r="H25">
-        <v>12.65476515389662</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>5.174101368908665</v>
+        <v>12.80691182562475</v>
       </c>
       <c r="J25">
-        <v>52.2889889967127</v>
+        <v>5.073692926990189</v>
       </c>
       <c r="K25">
-        <v>40.1950924385537</v>
+        <v>51.94403379631151</v>
       </c>
       <c r="L25">
+        <v>39.94286455631161</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.09292771201541</v>
+        <v>16.59000543242506</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.0823782801271</v>
+        <v>5.81864266249751</v>
       </c>
       <c r="E2">
-        <v>7.517423468110455</v>
+        <v>26.21187980604662</v>
       </c>
       <c r="F2">
-        <v>55.60362636869863</v>
+        <v>48.59618005400792</v>
       </c>
       <c r="G2">
-        <v>1.961227921089383</v>
+        <v>2.015952263963568</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.26716637959371</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.106155702775457</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>46.8165081323709</v>
+        <v>35.88907661921696</v>
       </c>
       <c r="L2">
-        <v>35.91685582110492</v>
+        <v>9.741998109974915</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.37281185963046</v>
+      </c>
+      <c r="N2">
+        <v>13.81928096098528</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.10670867906642</v>
+        <v>15.72601824225969</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>6.458181545225681</v>
+        <v>5.670873559948875</v>
       </c>
       <c r="E3">
-        <v>7.096132226432755</v>
+        <v>24.47856914319764</v>
       </c>
       <c r="F3">
-        <v>51.43383267057429</v>
+        <v>45.55791862991943</v>
       </c>
       <c r="G3">
-        <v>1.986605425536417</v>
+        <v>2.034314590244493</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.65479762347378</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5.134144738246873</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>43.22139058274893</v>
+        <v>33.21837445689989</v>
       </c>
       <c r="L3">
-        <v>33.1060863853625</v>
+        <v>9.036629062862009</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.80475240569012</v>
+      </c>
+      <c r="N3">
+        <v>14.12763739415934</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.47236284611342</v>
+        <v>15.18714452262934</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>6.109931112906232</v>
+        <v>5.588600396084073</v>
       </c>
       <c r="E4">
-        <v>6.837574769796842</v>
+        <v>23.38190471205833</v>
       </c>
       <c r="F4">
-        <v>48.96344643501392</v>
+        <v>43.67527297988755</v>
       </c>
       <c r="G4">
-        <v>2.002081701658248</v>
+        <v>2.045690373420659</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.92136011992747</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5.153720288538557</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>40.94004703015666</v>
+        <v>31.51007687057328</v>
       </c>
       <c r="L4">
-        <v>31.32743436102976</v>
+        <v>8.599050000866647</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.45630265889059</v>
+      </c>
+      <c r="N4">
+        <v>14.31918385775475</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.20637326775875</v>
+        <v>14.9656027676331</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.996163018266015</v>
+        <v>5.557054081596235</v>
       </c>
       <c r="E5">
-        <v>6.731931441304918</v>
+        <v>22.92638604793887</v>
       </c>
       <c r="F5">
-        <v>47.95622975438364</v>
+        <v>42.90370864613396</v>
       </c>
       <c r="G5">
-        <v>2.008385868753631</v>
+        <v>2.050361126265028</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.03615218837386</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5.162235883301154</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>39.99003596179027</v>
+        <v>30.79597847599717</v>
       </c>
       <c r="L5">
-        <v>30.58787366163433</v>
+        <v>8.469263052947088</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.31447991955408</v>
+      </c>
+      <c r="N5">
+        <v>14.39787585669199</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.16174715359144</v>
+        <v>14.92870429503348</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.977385980260863</v>
+        <v>5.551931375907699</v>
       </c>
       <c r="E6">
-        <v>6.714365134195523</v>
+        <v>22.85021529990819</v>
       </c>
       <c r="F6">
-        <v>47.78891591564368</v>
+        <v>42.77533072041286</v>
       </c>
       <c r="G6">
-        <v>2.00943313742082</v>
+        <v>2.051139073594268</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.05556024702739</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5.163680858049507</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>39.83101293380341</v>
+        <v>30.67629877501074</v>
       </c>
       <c r="L6">
-        <v>30.46414166911813</v>
+        <v>8.447662807810502</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.29094404084293</v>
+      </c>
+      <c r="N6">
+        <v>14.41098314075115</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.46880623530055</v>
+        <v>15.18416435490699</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6.10838901713404</v>
+        <v>5.588167117793375</v>
       </c>
       <c r="E7">
-        <v>6.836151504180045</v>
+        <v>23.37579686802682</v>
       </c>
       <c r="F7">
-        <v>48.94986652328191</v>
+        <v>43.6648849622396</v>
       </c>
       <c r="G7">
-        <v>2.002166703594344</v>
+        <v>2.045753211235922</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.92288445969943</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>5.153833024736517</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>40.9273193246695</v>
+        <v>31.50051989165294</v>
       </c>
       <c r="L7">
-        <v>31.31752183612419</v>
+        <v>8.597303003435613</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.45438914533582</v>
+      </c>
+      <c r="N7">
+        <v>14.32024245447394</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.7586963741692</v>
+        <v>16.29391939458909</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>6.867730863397595</v>
+        <v>5.765845076479178</v>
       </c>
       <c r="E8">
-        <v>7.371923629729031</v>
+        <v>25.62064051917228</v>
       </c>
       <c r="F8">
-        <v>54.12712139577807</v>
+        <v>47.55201570711974</v>
       </c>
       <c r="G8">
-        <v>1.970015982246734</v>
+        <v>2.022268756242046</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.39420788593863</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>5.115267291086864</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>45.59109264674289</v>
+        <v>34.98195975428934</v>
       </c>
       <c r="L8">
-        <v>34.95769815732709</v>
+        <v>9.502542662527148</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.1769154307463</v>
+      </c>
+      <c r="N8">
+        <v>13.9251920657085</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.07346974782693</v>
+        <v>18.40006052456939</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.428528215989871</v>
+        <v>6.188718182382594</v>
       </c>
       <c r="E9">
-        <v>8.443442142331795</v>
+        <v>29.79368187320837</v>
       </c>
       <c r="F9">
-        <v>64.87032948079145</v>
+        <v>55.1071292866754</v>
       </c>
       <c r="G9">
-        <v>1.904725361323132</v>
+        <v>1.976506452083029</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.64527650071859</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.062577738088184</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>54.25172544147485</v>
+        <v>41.30448149010414</v>
       </c>
       <c r="L9">
-        <v>41.76162755293337</v>
+        <v>11.16820681908787</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>14.67425041149244</v>
+      </c>
+      <c r="N9">
+        <v>13.16412547323422</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.66921306786072</v>
+        <v>19.90553757544891</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.625627293513869</v>
+        <v>6.556884326283987</v>
       </c>
       <c r="E10">
-        <v>9.285889986053341</v>
+        <v>32.7717649209818</v>
       </c>
       <c r="F10">
-        <v>73.0590042883029</v>
+        <v>60.912121258411</v>
       </c>
       <c r="G10">
-        <v>1.852633803943734</v>
+        <v>1.942181013262323</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>12.38948120605758</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.046415979412581</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>60.51614465627632</v>
+        <v>45.70767769106882</v>
       </c>
       <c r="L10">
-        <v>46.72105589615803</v>
+        <v>12.32255164495723</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.17943787003361</v>
+      </c>
+      <c r="N10">
+        <v>12.6070551465451</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.38139202470685</v>
+        <v>20.58330522464981</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.2012477762087</v>
+        <v>6.740381172187643</v>
       </c>
       <c r="E11">
-        <v>9.69784416269817</v>
+        <v>34.1238474957226</v>
       </c>
       <c r="F11">
-        <v>76.96146622873766</v>
+        <v>63.55773724359867</v>
       </c>
       <c r="G11">
-        <v>1.827033844534727</v>
+        <v>1.926150135877196</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.37776570487108</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.047451966339264</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>63.41602179061376</v>
+        <v>47.67752931558266</v>
       </c>
       <c r="L11">
-        <v>49.02816526004507</v>
+        <v>12.83704575131872</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.84669035388588</v>
+      </c>
+      <c r="N11">
+        <v>12.35245244625323</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.65029116511739</v>
+        <v>20.86481286304763</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.42645549093567</v>
+        <v>6.812562867967579</v>
       </c>
       <c r="E12">
-        <v>9.860361443098501</v>
+        <v>34.63732927436895</v>
       </c>
       <c r="F12">
-        <v>78.48051829639363</v>
+        <v>64.56322367267346</v>
       </c>
       <c r="G12">
-        <v>1.816928310996726</v>
+        <v>1.91999069666073</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.39342274136851</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.049568527437138</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>64.53107872102829</v>
+        <v>48.42080616358626</v>
       </c>
       <c r="L12">
-        <v>49.91723607463392</v>
+        <v>13.03082647155662</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.09738153906973</v>
+      </c>
+      <c r="N12">
+        <v>12.25571013450903</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.59238875446009</v>
+        <v>20.80166831842341</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.37757142044815</v>
+        <v>6.79688991410902</v>
       </c>
       <c r="E13">
-        <v>9.825017935841961</v>
+        <v>34.52664062043924</v>
       </c>
       <c r="F13">
-        <v>78.1511859054977</v>
+        <v>64.34645497588828</v>
       </c>
       <c r="G13">
-        <v>1.819125983422903</v>
+        <v>1.921321743550176</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.38905560514231</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.049024374996159</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>64.28996857719945</v>
+        <v>48.26080702160812</v>
       </c>
       <c r="L13">
-        <v>49.7248993096558</v>
+        <v>12.98912990059518</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.04346905431744</v>
+      </c>
+      <c r="N13">
+        <v>12.27656279264145</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.40352146147039</v>
+        <v>20.60437394155151</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.21960981737026</v>
+        <v>6.746262939834619</v>
       </c>
       <c r="E14">
-        <v>9.711065514621414</v>
+        <v>34.16604976696797</v>
       </c>
       <c r="F14">
-        <v>77.08549265871223</v>
+        <v>63.64036591834849</v>
       </c>
       <c r="G14">
-        <v>1.826211741280128</v>
+        <v>1.925645371112242</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.37861533195556</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.047587480245048</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>63.50734536680319</v>
+        <v>47.73871845929742</v>
       </c>
       <c r="L14">
-        <v>49.10093975013968</v>
+        <v>12.85300599856506</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.86735111215643</v>
+      </c>
+      <c r="N14">
+        <v>12.34450100772022</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.28777696972361</v>
+        <v>20.49417301532366</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.12390168947831</v>
+        <v>6.71561699298628</v>
       </c>
       <c r="E15">
-        <v>9.642208147424673</v>
+        <v>33.94543413351477</v>
       </c>
       <c r="F15">
-        <v>76.43870473989547</v>
+        <v>63.20844419797634</v>
       </c>
       <c r="G15">
-        <v>1.830493139951448</v>
+        <v>1.928281146601748</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.37501910905622</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.046952342851199</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>63.03054267341659</v>
+        <v>47.41864927196273</v>
       </c>
       <c r="L15">
-        <v>48.72106228285984</v>
+        <v>12.76950616730868</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.7592334596721</v>
+      </c>
+      <c r="N15">
+        <v>12.38606703460488</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.62248395300189</v>
+        <v>19.86112459333521</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.588841282611877</v>
+        <v>6.545245826644386</v>
       </c>
       <c r="E16">
-        <v>9.259723164984624</v>
+        <v>32.68349705166422</v>
       </c>
       <c r="F16">
-        <v>72.80871821598473</v>
+        <v>60.7395543424215</v>
       </c>
       <c r="G16">
-        <v>1.854258190562747</v>
+        <v>1.943217980192632</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>12.39274363076484</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.046555150734946</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>60.32837023667311</v>
+        <v>45.57844381397567</v>
       </c>
       <c r="L16">
-        <v>46.57191499163167</v>
+        <v>12.28875290831642</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.13552228058975</v>
+      </c>
+      <c r="N16">
+        <v>12.62365708450641</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.21152393358577</v>
+        <v>19.47113387702971</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.270142047563288</v>
+        <v>6.445078357818147</v>
       </c>
       <c r="E17">
-        <v>9.033789937837707</v>
+        <v>31.90982711641925</v>
       </c>
       <c r="F17">
-        <v>70.63630708931976</v>
+        <v>59.22805225654888</v>
       </c>
       <c r="G17">
-        <v>1.868270482393956</v>
+        <v>1.952256244380258</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>12.43347997974089</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.048748477902489</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>58.68912934805321</v>
+        <v>44.44237909468196</v>
       </c>
       <c r="L17">
-        <v>45.2712202874273</v>
+        <v>11.99141203791471</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15.74876098450001</v>
+      </c>
+      <c r="N17">
+        <v>12.76900085513964</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.97376526432364</v>
+        <v>19.24612950300062</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.08953816282119</v>
+        <v>6.388943622902524</v>
       </c>
       <c r="E18">
-        <v>8.906350505715563</v>
+        <v>31.46444521654241</v>
       </c>
       <c r="F18">
-        <v>69.40223462086256</v>
+        <v>58.35891566572899</v>
       </c>
       <c r="G18">
-        <v>1.876161732371305</v>
+        <v>1.95741776207115</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>12.46637689602858</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.050757448370438</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>57.7502345592812</v>
+        <v>43.78566885045124</v>
       </c>
       <c r="L18">
-        <v>44.52726155177321</v>
+        <v>11.81935493142689</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>15.52462440157058</v>
+      </c>
+      <c r="N18">
+        <v>12.85249766945995</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.89299807311765</v>
+        <v>19.16982079332336</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.028788602433339</v>
+        <v>6.370181069681487</v>
       </c>
       <c r="E19">
-        <v>8.863578338558398</v>
+        <v>31.31353137249731</v>
       </c>
       <c r="F19">
-        <v>68.9866844121637</v>
+        <v>58.06460626961003</v>
       </c>
       <c r="G19">
-        <v>1.878807900001366</v>
+        <v>1.959159767969231</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12.47901495269213</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.051554410253729</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>57.43279202835252</v>
+        <v>43.56269947058398</v>
       </c>
       <c r="L19">
-        <v>44.2758958543</v>
+        <v>11.76090887841674</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.44843262575109</v>
+      </c>
+      <c r="N19">
+        <v>12.88075534923308</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.2554077316747</v>
+        <v>19.51271887427983</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.303772350236637</v>
+        <v>6.455585781238103</v>
       </c>
       <c r="E20">
-        <v>9.057567414088863</v>
+        <v>31.99221383715212</v>
       </c>
       <c r="F20">
-        <v>70.86587506697775</v>
+        <v>59.38891091066867</v>
       </c>
       <c r="G20">
-        <v>1.866797060791684</v>
+        <v>1.951298127556557</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12.42813284246266</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.048434746436705</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>58.86316382357805</v>
+        <v>44.56364055931252</v>
       </c>
       <c r="L20">
-        <v>45.40920333802298</v>
+        <v>12.02316843820644</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>15.79010300116395</v>
+      </c>
+      <c r="N20">
+        <v>12.75354029751828</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.45900543096833</v>
+        <v>20.65719551759967</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.2657814728803</v>
+        <v>6.761056476936464</v>
       </c>
       <c r="E21">
-        <v>9.744333576877359</v>
+        <v>34.27190644338564</v>
       </c>
       <c r="F21">
-        <v>77.39722580244384</v>
+        <v>63.84763428680392</v>
       </c>
       <c r="G21">
-        <v>1.824143095413143</v>
+        <v>1.924378100074443</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.38108675552765</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.047957083205663</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>63.73665895576364</v>
+        <v>47.89212122893725</v>
       </c>
       <c r="L21">
-        <v>49.28370858367963</v>
+        <v>12.89301285993078</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.91913016962181</v>
+      </c>
+      <c r="N21">
+        <v>12.32455624952819</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.24208586489365</v>
+        <v>21.50704528128478</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.93921222348709</v>
+        <v>6.9766814952224</v>
       </c>
       <c r="E22">
-        <v>10.23344253001467</v>
+        <v>35.77171991928997</v>
       </c>
       <c r="F22">
-        <v>81.92093160476263</v>
+        <v>66.78503241098028</v>
       </c>
       <c r="G22">
-        <v>1.793742768864876</v>
+        <v>1.906246435939227</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.47142848564258</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.058207396816252</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>67.0293468497279</v>
+        <v>50.0533747701671</v>
       </c>
       <c r="L22">
-        <v>51.91312644355677</v>
+        <v>13.45572483865591</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.64580673078495</v>
+      </c>
+      <c r="N22">
+        <v>12.04217486998422</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.82390125920008</v>
+        <v>21.05384219288718</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.57435268394024</v>
+        <v>6.859975086213788</v>
       </c>
       <c r="E23">
-        <v>9.967524327925441</v>
+        <v>34.96957011730075</v>
       </c>
       <c r="F23">
-        <v>79.47552380263632</v>
+        <v>65.21391983251438</v>
       </c>
       <c r="G23">
-        <v>1.810265577128127</v>
+        <v>1.915984658593218</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.40990030276402</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.051505993618779</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>65.25742991324047</v>
+        <v>48.90031065926648</v>
       </c>
       <c r="L23">
-        <v>50.49696283004489</v>
+        <v>13.15573054939079</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.25877997099287</v>
+      </c>
+      <c r="N23">
+        <v>12.19313095688841</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.2355725954316</v>
+        <v>19.49392078992847</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.288560114469826</v>
+        <v>6.450830877748761</v>
       </c>
       <c r="E24">
-        <v>9.046810137544089</v>
+        <v>31.95496876741113</v>
       </c>
       <c r="F24">
-        <v>70.76204211229522</v>
+        <v>59.31618740201517</v>
       </c>
       <c r="G24">
-        <v>1.867463698102604</v>
+        <v>1.951731398173608</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>12.43052111670002</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.0485742888631</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>58.7844725092873</v>
+        <v>44.50882952696202</v>
       </c>
       <c r="L24">
-        <v>45.34680982374722</v>
+        <v>12.00881486744261</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>15.77141786516365</v>
+      </c>
+      <c r="N24">
+        <v>12.76053020097617</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.46800494782902</v>
+        <v>17.83800734016554</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.002438201566969</v>
+        <v>6.065227575806182</v>
       </c>
       <c r="E25">
-        <v>8.147901862038658</v>
+        <v>28.6847133274004</v>
       </c>
       <c r="F25">
-        <v>61.93969801373248</v>
+        <v>53.03602858024968</v>
       </c>
       <c r="G25">
-        <v>1.922860347439713</v>
+        <v>1.988935608633205</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.80691182562475</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.073692926990189</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>51.94403379631151</v>
+        <v>39.64205884840604</v>
       </c>
       <c r="L25">
-        <v>39.94286455631161</v>
+        <v>10.73105941751633</v>
       </c>
       <c r="M25">
+        <v>14.21116134595398</v>
+      </c>
+      <c r="N25">
+        <v>13.36915225097442</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.59000543242506</v>
+        <v>16.15721209423491</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5.81864266249751</v>
+        <v>3.097485779384067</v>
       </c>
       <c r="E2">
-        <v>26.21187980604662</v>
+        <v>15.21437382044153</v>
       </c>
       <c r="F2">
-        <v>48.59618005400792</v>
+        <v>18.75455138168001</v>
       </c>
       <c r="G2">
-        <v>2.015952263963568</v>
+        <v>25.47992665073674</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.712443523698152</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>12.88524933361768</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>35.88907661921696</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.741998109974915</v>
+        <v>9.644956519354661</v>
       </c>
       <c r="M2">
-        <v>13.37281185963046</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.81928096098528</v>
+        <v>14.20937548645364</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.82316162245626</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.72601824225969</v>
+        <v>15.17256868077304</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5.670873559948875</v>
+        <v>2.950148931644422</v>
       </c>
       <c r="E3">
-        <v>24.47856914319764</v>
+        <v>15.07089038238606</v>
       </c>
       <c r="F3">
-        <v>45.55791862991943</v>
+        <v>17.69814607167586</v>
       </c>
       <c r="G3">
-        <v>2.034314590244493</v>
+        <v>23.8187963988182</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.506128859838316</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.27559077352208</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>33.21837445689989</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9.036629062862009</v>
+        <v>9.058169352927717</v>
       </c>
       <c r="M3">
-        <v>12.80475240569012</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.12763739415934</v>
+        <v>14.06844995392379</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>13.1735506098257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.18714452262934</v>
+        <v>14.53629752877524</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>5.588600396084073</v>
+        <v>2.855483607266746</v>
       </c>
       <c r="E4">
-        <v>23.38190471205833</v>
+        <v>14.98515935537336</v>
       </c>
       <c r="F4">
-        <v>43.67527297988755</v>
+        <v>17.03054533174769</v>
       </c>
       <c r="G4">
-        <v>2.045690373420659</v>
+        <v>22.7571113073498</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.382155598016338</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.52263354359251</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>31.51007687057328</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.599050000866647</v>
+        <v>8.677867459151065</v>
       </c>
       <c r="M4">
-        <v>12.45630265889059</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.31918385775475</v>
+        <v>13.98504067835908</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>12.76923684633414</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.9656027676331</v>
+        <v>14.26916358163353</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.557054081596235</v>
+        <v>2.815875123349701</v>
       </c>
       <c r="E5">
-        <v>22.92638604793887</v>
+        <v>14.95087073303501</v>
       </c>
       <c r="F5">
-        <v>42.90370864613396</v>
+        <v>16.75404733980779</v>
       </c>
       <c r="G5">
-        <v>2.050361126265028</v>
+        <v>22.31423067184909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.332373350567526</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.62518509254171</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>30.79597847599717</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.469263052947088</v>
+        <v>8.517880066757749</v>
       </c>
       <c r="M5">
-        <v>12.31447991955408</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.39787585669199</v>
+        <v>13.95185719892912</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>12.60335080354117</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.92870429503348</v>
+        <v>14.22433641697419</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>5.551931375907699</v>
+        <v>2.809236666159418</v>
       </c>
       <c r="E6">
-        <v>22.85021529990819</v>
+        <v>14.94521773958548</v>
       </c>
       <c r="F6">
-        <v>42.77533072041286</v>
+        <v>16.70787730110429</v>
       </c>
       <c r="G6">
-        <v>2.051139073594268</v>
+        <v>22.24008175384525</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.324153294474874</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.64232797254271</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>30.67629877501074</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.447662807810502</v>
+        <v>8.491012438017535</v>
       </c>
       <c r="M6">
-        <v>12.29094404084293</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.41098314075115</v>
+        <v>13.94639643746795</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>12.57574542800157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.18416435490699</v>
+        <v>14.53272645836259</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>5.588167117793375</v>
+        <v>2.854953574548606</v>
       </c>
       <c r="E7">
-        <v>23.37579686802682</v>
+        <v>14.98469423745166</v>
       </c>
       <c r="F7">
-        <v>43.6648849622396</v>
+        <v>17.0268339070374</v>
       </c>
       <c r="G7">
-        <v>2.045753211235922</v>
+        <v>22.75117950122407</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.381481153430336</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.52400894512755</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>31.50051989165294</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.597303003435613</v>
+        <v>8.675730068320462</v>
       </c>
       <c r="M7">
-        <v>12.45438914533582</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.32024245447394</v>
+        <v>13.98458986069096</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>12.76700385524166</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.29391939458909</v>
+        <v>15.82434868971471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.765845076479178</v>
+        <v>3.047569036526732</v>
       </c>
       <c r="E8">
-        <v>25.62064051917228</v>
+        <v>15.16444056324908</v>
       </c>
       <c r="F8">
-        <v>47.55201570711974</v>
+        <v>18.39441310303451</v>
       </c>
       <c r="G8">
-        <v>2.022268756242046</v>
+        <v>24.91596570891707</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.640779382931356</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.01832495533161</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>34.98195975428934</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>9.502542662527148</v>
+        <v>9.446795186180942</v>
       </c>
       <c r="M8">
-        <v>13.1769154307463</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.9251920657085</v>
+        <v>14.16015044223914</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>13.60044397887958</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.40006052456939</v>
+        <v>18.10191043658849</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>6.188718182382594</v>
+        <v>3.391106128529111</v>
       </c>
       <c r="E9">
-        <v>29.79368187320837</v>
+        <v>15.53339844597924</v>
       </c>
       <c r="F9">
-        <v>55.1071292866754</v>
+        <v>20.9146784824604</v>
       </c>
       <c r="G9">
-        <v>1.976506452083029</v>
+        <v>28.93855689376467</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.168242002051649</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.08395545126847</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>41.30448149010414</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>11.16820681908787</v>
+        <v>10.79965160010073</v>
       </c>
       <c r="M9">
-        <v>14.67425041149244</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.16412547323422</v>
+        <v>14.52816642454822</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.18248868711812</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.90553757544891</v>
+        <v>19.64498795211925</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>6.556884326283987</v>
+        <v>3.62178276599131</v>
       </c>
       <c r="E10">
-        <v>32.7717649209818</v>
+        <v>15.81138904463504</v>
       </c>
       <c r="F10">
-        <v>60.912121258411</v>
+        <v>22.76084081906355</v>
       </c>
       <c r="G10">
-        <v>1.942181013262323</v>
+        <v>31.67725051106352</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.564204679278809</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>11.43065158275192</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>45.70767769106882</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>12.32255164495723</v>
+        <v>11.6965792866369</v>
       </c>
       <c r="M10">
-        <v>16.17943787003361</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.6070551465451</v>
+        <v>14.81162792830851</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.34039068930101</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.58330522464981</v>
+        <v>20.33738933957751</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>6.740381172187643</v>
+        <v>3.721884002987383</v>
       </c>
       <c r="E11">
-        <v>34.1238474957226</v>
+        <v>15.93869596394239</v>
       </c>
       <c r="F11">
-        <v>63.55773724359867</v>
+        <v>23.6110778312996</v>
       </c>
       <c r="G11">
-        <v>1.926150135877196</v>
+        <v>32.87190868647795</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.745583873341433</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>11.14026603251374</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>47.67752931558266</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>12.83704575131872</v>
+        <v>12.08368706431455</v>
       </c>
       <c r="M11">
-        <v>16.84669035388588</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.35245244625323</v>
+        <v>14.94311715258423</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.96459592101112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.86481286304763</v>
+        <v>20.59382496659416</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>6.812562867967579</v>
+        <v>3.759087414219179</v>
       </c>
       <c r="E12">
-        <v>34.63732927436895</v>
+        <v>15.98697159000521</v>
       </c>
       <c r="F12">
-        <v>64.56322367267346</v>
+        <v>23.92771166022455</v>
       </c>
       <c r="G12">
-        <v>1.91999069666073</v>
+        <v>33.31701348287349</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.814405403186926</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>11.03125219011201</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>48.42080616358626</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>13.03082647155662</v>
+        <v>12.22728483368547</v>
       </c>
       <c r="M12">
-        <v>17.09738153906973</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.25571013450903</v>
+        <v>14.99324809253918</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>17.19697279413929</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.80166831842341</v>
+        <v>20.53885243845934</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.79688991410902</v>
+        <v>3.751106346341548</v>
       </c>
       <c r="E13">
-        <v>34.52664062043924</v>
+        <v>15.97657243538714</v>
       </c>
       <c r="F13">
-        <v>64.34645497588828</v>
+        <v>23.85975513990247</v>
       </c>
       <c r="G13">
-        <v>1.921321743550176</v>
+        <v>33.22147481262638</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.799577977876192</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>11.0546885463185</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>48.26080702160812</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>12.98912990059518</v>
+        <v>12.1964912490516</v>
       </c>
       <c r="M13">
-        <v>17.04346905431744</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.27656279264145</v>
+        <v>14.98243684896254</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>17.14710294507567</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.60437394155151</v>
+        <v>20.35860164577306</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>6.746262939834619</v>
+        <v>3.724958869778553</v>
       </c>
       <c r="E14">
-        <v>34.16604976696797</v>
+        <v>15.94266658930026</v>
       </c>
       <c r="F14">
-        <v>63.64036591834849</v>
+        <v>23.63723403012202</v>
       </c>
       <c r="G14">
-        <v>1.925645371112242</v>
+        <v>32.90867323988703</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.751243338843466</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>11.13127855255584</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>47.73871845929742</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>12.85300599856506</v>
+        <v>12.09556079264745</v>
       </c>
       <c r="M14">
-        <v>16.86735111215643</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.34450100772022</v>
+        <v>14.94723481604776</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.98379341539934</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.49417301532366</v>
+        <v>20.24744393599356</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>6.71561699298628</v>
+        <v>3.708851079305725</v>
       </c>
       <c r="E15">
-        <v>33.94543413351477</v>
+        <v>15.92190543815219</v>
       </c>
       <c r="F15">
-        <v>63.20844419797634</v>
+        <v>23.50024065479304</v>
       </c>
       <c r="G15">
-        <v>1.928281146601748</v>
+        <v>32.71612698542334</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.721653661240349</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>11.17831482642235</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>47.41864927196273</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>12.76950616730868</v>
+        <v>12.03334890742689</v>
       </c>
       <c r="M15">
-        <v>16.7592334596721</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.38606703460488</v>
+        <v>14.9257158943644</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.88324315269931</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.86112459333521</v>
+        <v>19.59892896020164</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>6.545245826644386</v>
+        <v>3.615142934310164</v>
       </c>
       <c r="E16">
-        <v>32.68349705166422</v>
+        <v>15.8030815976949</v>
       </c>
       <c r="F16">
-        <v>60.7395543424215</v>
+        <v>22.70452669576407</v>
       </c>
       <c r="G16">
-        <v>1.943217980192632</v>
+        <v>31.59815254397489</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.552372531448714</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>11.44976336705234</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>45.57844381397567</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>12.28875290831642</v>
+        <v>11.67086133743215</v>
       </c>
       <c r="M16">
-        <v>16.13552228058975</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.62365708450641</v>
+        <v>14.80308365506402</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.29903470982565</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.47113387702971</v>
+        <v>19.19077155368146</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>6.445078357818147</v>
+        <v>3.556411673491821</v>
       </c>
       <c r="E17">
-        <v>31.90982711641925</v>
+        <v>15.73036488557371</v>
       </c>
       <c r="F17">
-        <v>59.22805225654888</v>
+        <v>22.20682876873119</v>
       </c>
       <c r="G17">
-        <v>1.952256244380258</v>
+        <v>30.89924586326592</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.448812646172238</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.61801022393311</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>44.44237909468196</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>11.99141203791471</v>
+        <v>11.4431410538486</v>
       </c>
       <c r="M17">
-        <v>15.74876098450001</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.76900085513964</v>
+        <v>14.72848462414397</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.98117668721148</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.24612950300062</v>
+        <v>18.96362733917032</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>6.388943622902524</v>
+        <v>3.522176238295342</v>
       </c>
       <c r="E18">
-        <v>31.46444521654241</v>
+        <v>15.688623141699</v>
       </c>
       <c r="F18">
-        <v>58.35891566572899</v>
+        <v>21.9170412587909</v>
       </c>
       <c r="G18">
-        <v>1.95741776207115</v>
+        <v>30.49242906768776</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.389367984577536</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.71542374778613</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>43.78566885045124</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>11.81935493142689</v>
+        <v>11.31019310805684</v>
       </c>
       <c r="M18">
-        <v>15.52462440157058</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.85249766945995</v>
+        <v>14.68581800814528</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.81393672520301</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.16982079332336</v>
+        <v>18.88704883944909</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6.370181069681487</v>
+        <v>3.510506866927624</v>
       </c>
       <c r="E19">
-        <v>31.31353137249731</v>
+        <v>15.67450604055899</v>
       </c>
       <c r="F19">
-        <v>58.06460626961003</v>
+        <v>21.81831766652543</v>
       </c>
       <c r="G19">
-        <v>1.959159767969231</v>
+        <v>30.35385749087602</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.369263105184235</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.74851752688393</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>43.56269947058398</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>11.76090887841674</v>
+        <v>11.26484060312846</v>
       </c>
       <c r="M19">
-        <v>15.44843262575109</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.88075534923308</v>
+        <v>14.67141399157156</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.75714607972426</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.51271887427983</v>
+        <v>19.23461416488592</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>6.455585781238103</v>
+        <v>3.562710844578739</v>
       </c>
       <c r="E20">
-        <v>31.99221383715212</v>
+        <v>15.73809751447799</v>
       </c>
       <c r="F20">
-        <v>59.38891091066867</v>
+        <v>22.2601740871226</v>
       </c>
       <c r="G20">
-        <v>1.951298127556557</v>
+        <v>30.97414449630516</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.459824658929694</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.6000337898928</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>44.56364055931252</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>12.02316843820644</v>
+        <v>11.46758598133351</v>
       </c>
       <c r="M20">
-        <v>15.79010300116395</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.75354029751828</v>
+        <v>14.73640109252196</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.01204941465216</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.65719551759967</v>
+        <v>20.41170165381651</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>6.761056476936464</v>
+        <v>3.732658139402757</v>
       </c>
       <c r="E21">
-        <v>34.27190644338564</v>
+        <v>15.95262416204066</v>
       </c>
       <c r="F21">
-        <v>63.84763428680392</v>
+        <v>23.70273813985661</v>
       </c>
       <c r="G21">
-        <v>1.924378100074443</v>
+        <v>33.00074767625357</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.765436985474429</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>11.10875669734898</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>47.89212122893725</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>12.89301285993078</v>
+        <v>12.12528756252818</v>
       </c>
       <c r="M21">
-        <v>16.91913016962181</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.32455624952819</v>
+        <v>14.95756552148919</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>17.03186930902473</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.50704528128478</v>
+        <v>21.14743582710083</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6.9766814952224</v>
+        <v>3.839630291512063</v>
       </c>
       <c r="E22">
-        <v>35.77171991928997</v>
+        <v>16.09319736012543</v>
       </c>
       <c r="F22">
-        <v>66.78503241098028</v>
+        <v>24.61448880027405</v>
       </c>
       <c r="G22">
-        <v>1.906246435939227</v>
+        <v>34.28283145754398</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.965956148303226</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.79319555575369</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>50.0533747701671</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>13.45572483865591</v>
+        <v>12.5377064279975</v>
       </c>
       <c r="M22">
-        <v>17.64580673078495</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.04217486998422</v>
+        <v>15.10407208678907</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>17.70087379995224</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.05384219288718</v>
+        <v>20.75781514765721</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>6.859975086213788</v>
+        <v>3.782914174628978</v>
       </c>
       <c r="E23">
-        <v>34.96957011730075</v>
+        <v>16.01815487357805</v>
       </c>
       <c r="F23">
-        <v>65.21391983251438</v>
+        <v>24.13069149191787</v>
       </c>
       <c r="G23">
-        <v>1.915984658593218</v>
+        <v>33.60240956770368</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.858876254182332</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.96112154841835</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>48.90031065926648</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>13.15573054939079</v>
+        <v>12.3191792395051</v>
       </c>
       <c r="M23">
-        <v>17.25877997099287</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.19313095688841</v>
+        <v>15.02570788440127</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>17.3459193170005</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.49392078992847</v>
+        <v>19.21480510960224</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>6.450830877748761</v>
+        <v>3.559864452840379</v>
       </c>
       <c r="E24">
-        <v>31.95496876741113</v>
+        <v>15.73460138925322</v>
       </c>
       <c r="F24">
-        <v>59.31618740201517</v>
+        <v>22.23606805446344</v>
       </c>
       <c r="G24">
-        <v>1.951731398173608</v>
+        <v>30.94029842233333</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.454845834018796</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.60815879621849</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>44.50882952696202</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>12.00881486744261</v>
+        <v>11.45654074911016</v>
       </c>
       <c r="M24">
-        <v>15.77141786516365</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.76053020097617</v>
+        <v>14.73282136565896</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.9980951496596</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.83800734016554</v>
+        <v>17.5135292088029</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>6.065227575806182</v>
+        <v>3.301933448597193</v>
       </c>
       <c r="E25">
-        <v>28.6847133274004</v>
+        <v>15.43214480846479</v>
       </c>
       <c r="F25">
-        <v>53.03602858024968</v>
+        <v>20.25149898757433</v>
       </c>
       <c r="G25">
-        <v>1.988935608633205</v>
+        <v>27.88427613222949</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.023853304277246</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12.33077298591805</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>39.64205884840604</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10.73105941751633</v>
+        <v>10.45073355654471</v>
       </c>
       <c r="M25">
-        <v>14.21116134595398</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.36915225097442</v>
+        <v>14.42620815650858</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.76124139788951</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.15721209423491</v>
+        <v>14.5254717992426</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.097485779384067</v>
+        <v>3.05306225987883</v>
       </c>
       <c r="E2">
-        <v>15.21437382044153</v>
+        <v>19.46157463727772</v>
       </c>
       <c r="F2">
-        <v>18.75455138168001</v>
+        <v>17.93764801243444</v>
       </c>
       <c r="G2">
-        <v>25.47992665073674</v>
+        <v>19.13130549794963</v>
       </c>
       <c r="H2">
-        <v>7.712443523698152</v>
+        <v>11.05197927298044</v>
       </c>
       <c r="I2">
-        <v>12.88524933361768</v>
+        <v>22.04651378314569</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.644956519354661</v>
+        <v>8.831106694377269</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>14.20937548645364</v>
+        <v>17.71690969420926</v>
       </c>
       <c r="O2">
-        <v>13.82316162245626</v>
+        <v>15.59750735714329</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.17256868077304</v>
+        <v>14.21647929673234</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.950148931644422</v>
+        <v>3.024369112635032</v>
       </c>
       <c r="E3">
-        <v>15.07089038238606</v>
+        <v>19.45830949409602</v>
       </c>
       <c r="F3">
-        <v>17.69814607167586</v>
+        <v>17.71864379238568</v>
       </c>
       <c r="G3">
-        <v>23.8187963988182</v>
+        <v>18.61633113051755</v>
       </c>
       <c r="H3">
-        <v>7.506128859838316</v>
+        <v>11.04995445959457</v>
       </c>
       <c r="I3">
-        <v>13.27559077352208</v>
+        <v>22.19105478300767</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.058169352927717</v>
+        <v>8.686500625716381</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>14.06844995392379</v>
+        <v>17.70234755475438</v>
       </c>
       <c r="O3">
-        <v>13.1735506098257</v>
+        <v>15.50875811661337</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.53629752877524</v>
+        <v>14.02480320129745</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.855483607266746</v>
+        <v>3.007117189528183</v>
       </c>
       <c r="E4">
-        <v>14.98515935537336</v>
+        <v>19.45859612847356</v>
       </c>
       <c r="F4">
-        <v>17.03054533174769</v>
+        <v>17.58866452936656</v>
       </c>
       <c r="G4">
-        <v>22.7571113073498</v>
+        <v>18.30018959595875</v>
       </c>
       <c r="H4">
-        <v>7.382155598016338</v>
+        <v>11.05105097273099</v>
       </c>
       <c r="I4">
-        <v>13.52263354359251</v>
+        <v>22.28438800424045</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.677867459151065</v>
+        <v>8.597589588567175</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.98504067835908</v>
+        <v>17.6954752632378</v>
       </c>
       <c r="O4">
-        <v>12.76923684633414</v>
+        <v>15.4585418422201</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26916358163353</v>
+        <v>13.94630526760923</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.815875123349701</v>
+        <v>3.000185819757807</v>
       </c>
       <c r="E5">
-        <v>14.95087073303501</v>
+        <v>19.4592935324771</v>
       </c>
       <c r="F5">
-        <v>16.75404733980779</v>
+        <v>17.53689466272931</v>
       </c>
       <c r="G5">
-        <v>22.31423067184909</v>
+        <v>18.17161121209857</v>
       </c>
       <c r="H5">
-        <v>7.332373350567526</v>
+        <v>11.05208698005524</v>
       </c>
       <c r="I5">
-        <v>13.62518509254171</v>
+        <v>22.32357803814756</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.517880066757749</v>
+        <v>8.561369953207407</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.95185719892912</v>
+        <v>17.69319873371636</v>
       </c>
       <c r="O5">
-        <v>12.60335080354117</v>
+        <v>15.43917232788376</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.22433641697419</v>
+        <v>13.9332503654495</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.809236666159418</v>
+        <v>2.999041045819236</v>
       </c>
       <c r="E6">
-        <v>14.94521773958548</v>
+        <v>19.45944452808715</v>
       </c>
       <c r="F6">
-        <v>16.70787730110429</v>
+        <v>17.52837260852117</v>
       </c>
       <c r="G6">
-        <v>22.24008175384525</v>
+        <v>18.15028320691249</v>
       </c>
       <c r="H6">
-        <v>7.324153294474874</v>
+        <v>11.05229461024051</v>
       </c>
       <c r="I6">
-        <v>13.64232797254271</v>
+        <v>22.33015542618401</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.491012438017535</v>
+        <v>8.55535772488623</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.94639643746795</v>
+        <v>17.69285247071977</v>
       </c>
       <c r="O6">
-        <v>12.57574542800157</v>
+        <v>15.43602262265837</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.53272645836259</v>
+        <v>14.02374598465645</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.854953574548606</v>
+        <v>3.007023301032878</v>
       </c>
       <c r="E7">
-        <v>14.98469423745166</v>
+        <v>19.45860317737669</v>
       </c>
       <c r="F7">
-        <v>17.0268339070374</v>
+        <v>17.58796140458206</v>
       </c>
       <c r="G7">
-        <v>22.75117950122407</v>
+        <v>18.29845420217027</v>
       </c>
       <c r="H7">
-        <v>7.381481153430336</v>
+        <v>11.05106255833384</v>
       </c>
       <c r="I7">
-        <v>13.52400894512755</v>
+        <v>22.28491184994446</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.675730068320462</v>
+        <v>8.597101010637109</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.98458986069096</v>
+        <v>17.69544243476803</v>
       </c>
       <c r="O7">
-        <v>12.76700385524166</v>
+        <v>15.45827616513166</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.82434868971471</v>
+        <v>14.41939714985156</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.047569036526732</v>
+        <v>3.043097163155605</v>
       </c>
       <c r="E8">
-        <v>15.16444056324908</v>
+        <v>19.45997590597252</v>
       </c>
       <c r="F8">
-        <v>18.39441310303451</v>
+        <v>17.86124538923718</v>
       </c>
       <c r="G8">
-        <v>24.91596570891707</v>
+        <v>18.95387093810944</v>
       </c>
       <c r="H8">
-        <v>7.640779382931356</v>
+        <v>11.05079608512525</v>
       </c>
       <c r="I8">
-        <v>13.01832495533161</v>
+        <v>22.095401938398</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.446795186180942</v>
+        <v>8.781297579285912</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>14.16015044223914</v>
+        <v>17.71146155744707</v>
       </c>
       <c r="O8">
-        <v>13.60044397887958</v>
+        <v>15.56603093077027</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.10191043658849</v>
+        <v>15.1754529499095</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.391106128529111</v>
+        <v>3.116427798039722</v>
       </c>
       <c r="E9">
-        <v>15.53339844597924</v>
+        <v>19.48065123886015</v>
       </c>
       <c r="F9">
-        <v>20.9146784824604</v>
+        <v>18.42964792275113</v>
       </c>
       <c r="G9">
-        <v>28.93855689376467</v>
+        <v>20.22962326791431</v>
       </c>
       <c r="H9">
-        <v>8.168242002051649</v>
+        <v>11.0687897569815</v>
       </c>
       <c r="I9">
-        <v>12.08395545126847</v>
+        <v>21.76000274028024</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.79965160010073</v>
+        <v>9.139678396628149</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>14.52816642454822</v>
+        <v>17.75912097408643</v>
       </c>
       <c r="O9">
-        <v>15.18248868711812</v>
+        <v>15.81035511596174</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.64498795211925</v>
+        <v>15.71339214678815</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.62178276599131</v>
+        <v>3.171456909187281</v>
       </c>
       <c r="E10">
-        <v>15.81138904463504</v>
+        <v>19.50653120089677</v>
       </c>
       <c r="F10">
-        <v>22.76084081906355</v>
+        <v>18.86274601309827</v>
       </c>
       <c r="G10">
-        <v>31.67725051106352</v>
+        <v>21.14864087778435</v>
       </c>
       <c r="H10">
-        <v>8.564204679278809</v>
+        <v>11.09321357186028</v>
       </c>
       <c r="I10">
-        <v>11.43065158275192</v>
+        <v>21.53546473132115</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.6965792866369</v>
+        <v>9.398839219717207</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>14.81162792830851</v>
+        <v>17.80380385494282</v>
       </c>
       <c r="O10">
-        <v>16.34039068930101</v>
+        <v>16.00865044564308</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.33738933957751</v>
+        <v>15.95325421613637</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.721884002987383</v>
+        <v>3.196649884570983</v>
       </c>
       <c r="E11">
-        <v>15.93869596394239</v>
+        <v>19.52056450677877</v>
       </c>
       <c r="F11">
-        <v>23.6110778312996</v>
+        <v>19.06220495620209</v>
       </c>
       <c r="G11">
-        <v>32.87190868647795</v>
+        <v>21.5603929766888</v>
       </c>
       <c r="H11">
-        <v>8.745583873341433</v>
+        <v>11.10673252049513</v>
       </c>
       <c r="I11">
-        <v>11.14026603251374</v>
+        <v>21.43802369373613</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.08368706431455</v>
+        <v>9.515352527466357</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>14.94311715258423</v>
+        <v>17.82617634194222</v>
       </c>
       <c r="O11">
-        <v>16.96459592101112</v>
+        <v>16.10262408007487</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.59382496659416</v>
+        <v>16.04330602051619</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.759087414219179</v>
+        <v>3.206205139178124</v>
       </c>
       <c r="E12">
-        <v>15.98697159000521</v>
+        <v>19.52619814974155</v>
       </c>
       <c r="F12">
-        <v>23.92771166022455</v>
+        <v>19.13800810935972</v>
       </c>
       <c r="G12">
-        <v>33.31701348287349</v>
+        <v>21.71522817968624</v>
       </c>
       <c r="H12">
-        <v>8.814405403186926</v>
+        <v>11.11219542454822</v>
       </c>
       <c r="I12">
-        <v>11.03125219011201</v>
+        <v>21.40179824946419</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.22728483368547</v>
+        <v>9.559236145938621</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>14.99324809253918</v>
+        <v>17.83493750799584</v>
       </c>
       <c r="O12">
-        <v>17.19697279413929</v>
+        <v>16.13872284948739</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.53885243845934</v>
+        <v>16.02394762525669</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.751106346341548</v>
+        <v>3.204146690293128</v>
       </c>
       <c r="E13">
-        <v>15.97657243538714</v>
+        <v>19.52497072182633</v>
       </c>
       <c r="F13">
-        <v>23.85975513990247</v>
+        <v>19.12167166964035</v>
       </c>
       <c r="G13">
-        <v>33.22147481262638</v>
+        <v>21.68193264703653</v>
       </c>
       <c r="H13">
-        <v>8.799577977876192</v>
+        <v>11.11100365756046</v>
       </c>
       <c r="I13">
-        <v>11.0546885463185</v>
+        <v>21.4095701440174</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.1964912490516</v>
+        <v>9.549796184916683</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>14.98243684896254</v>
+        <v>17.83303785424869</v>
       </c>
       <c r="O13">
-        <v>17.14710294507567</v>
+        <v>16.13092598830039</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.35860164577306</v>
+        <v>15.9606788861173</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.724958869778553</v>
+        <v>3.197435740376173</v>
       </c>
       <c r="E14">
-        <v>15.94266658930026</v>
+        <v>19.52102161810019</v>
       </c>
       <c r="F14">
-        <v>23.63723403012202</v>
+        <v>19.0684363146704</v>
       </c>
       <c r="G14">
-        <v>32.90867323988703</v>
+        <v>21.57315410344261</v>
       </c>
       <c r="H14">
-        <v>8.751243338843466</v>
+        <v>11.1071750882376</v>
       </c>
       <c r="I14">
-        <v>11.13127855255584</v>
+        <v>21.435029925625</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.09556079264745</v>
+        <v>9.518967834604529</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>14.94723481604776</v>
+        <v>17.82689136196479</v>
       </c>
       <c r="O14">
-        <v>16.98379341539934</v>
+        <v>16.10558383530833</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.24744393599356</v>
+        <v>15.92182121885418</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.708851079305725</v>
+        <v>3.193326842309347</v>
       </c>
       <c r="E15">
-        <v>15.92190543815219</v>
+        <v>19.51864412488706</v>
       </c>
       <c r="F15">
-        <v>23.50024065479304</v>
+        <v>19.03586128011202</v>
       </c>
       <c r="G15">
-        <v>32.71612698542334</v>
+        <v>21.50637758605516</v>
       </c>
       <c r="H15">
-        <v>8.721653661240349</v>
+        <v>11.10487463439399</v>
       </c>
       <c r="I15">
-        <v>11.17831482642235</v>
+        <v>21.45071238478446</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.03334890742689</v>
+        <v>9.500052532343163</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>14.9257158943644</v>
+        <v>17.82316396688064</v>
       </c>
       <c r="O15">
-        <v>16.88324315269931</v>
+        <v>16.09012696784538</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.59892896020164</v>
+        <v>15.6976119270008</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.615142934310164</v>
+        <v>3.169813041290602</v>
       </c>
       <c r="E16">
-        <v>15.8030815976949</v>
+        <v>19.50565910887518</v>
       </c>
       <c r="F16">
-        <v>22.70452669576407</v>
+        <v>18.84975327427371</v>
       </c>
       <c r="G16">
-        <v>31.59815254397489</v>
+        <v>21.12158926099771</v>
       </c>
       <c r="H16">
-        <v>8.552372531448714</v>
+        <v>11.09237831272934</v>
       </c>
       <c r="I16">
-        <v>11.44976336705234</v>
+        <v>21.54192711356495</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.67086133743215</v>
+        <v>9.391193655176561</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>14.80308365506402</v>
+        <v>17.80238250618312</v>
       </c>
       <c r="O16">
-        <v>16.29903470982565</v>
+        <v>16.00258242892555</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.19077155368146</v>
+        <v>15.55876505435433</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.556411673491821</v>
+        <v>3.155423501318324</v>
       </c>
       <c r="E17">
-        <v>15.73036488557371</v>
+        <v>19.4982682915759</v>
       </c>
       <c r="F17">
-        <v>22.20682876873119</v>
+        <v>18.73615093664236</v>
       </c>
       <c r="G17">
-        <v>30.89924586326592</v>
+        <v>20.88378522709278</v>
       </c>
       <c r="H17">
-        <v>8.448812646172238</v>
+        <v>11.08532722921472</v>
       </c>
       <c r="I17">
-        <v>11.61801022393311</v>
+        <v>21.59908676842097</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.4431410538486</v>
+        <v>9.324030457078807</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>14.72848462414397</v>
+        <v>17.79015427211365</v>
       </c>
       <c r="O17">
-        <v>15.98117668721148</v>
+        <v>15.94982160184781</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.96362733917032</v>
+        <v>15.47845209204658</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.522176238295342</v>
+        <v>3.147162537323171</v>
       </c>
       <c r="E18">
-        <v>15.688623141699</v>
+        <v>19.4942303859434</v>
       </c>
       <c r="F18">
-        <v>21.9170412587909</v>
+        <v>18.67104424453986</v>
       </c>
       <c r="G18">
-        <v>30.49242906768776</v>
+        <v>20.74642208179204</v>
       </c>
       <c r="H18">
-        <v>8.389367984577536</v>
+        <v>11.08149851265589</v>
       </c>
       <c r="I18">
-        <v>11.71542374778613</v>
+        <v>21.63240627287687</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.31019310805684</v>
+        <v>9.285272267218295</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>14.68581800814528</v>
+        <v>17.78331380890491</v>
       </c>
       <c r="O18">
-        <v>15.81393672520301</v>
+        <v>15.91983144052128</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.88704883944909</v>
+        <v>15.45118446082536</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.510506866927624</v>
+        <v>3.144368420235713</v>
       </c>
       <c r="E19">
-        <v>15.67450604055899</v>
+        <v>19.49289998532013</v>
       </c>
       <c r="F19">
-        <v>21.81831766652543</v>
+        <v>18.64904289818918</v>
       </c>
       <c r="G19">
-        <v>30.35385749087602</v>
+        <v>20.69981856928893</v>
       </c>
       <c r="H19">
-        <v>8.369263105184235</v>
+        <v>11.08024122028505</v>
       </c>
       <c r="I19">
-        <v>11.74851752688393</v>
+        <v>21.64376382004746</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.26484060312846</v>
+        <v>9.272128694890439</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>14.67141399157156</v>
+        <v>17.78103102531895</v>
       </c>
       <c r="O19">
-        <v>15.75714607972426</v>
+        <v>15.90973937312042</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.23461416488592</v>
+        <v>15.57359292027292</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.562710844578739</v>
+        <v>3.156953742834891</v>
       </c>
       <c r="E20">
-        <v>15.73809751447799</v>
+        <v>19.49903304136393</v>
       </c>
       <c r="F20">
-        <v>22.2601740871226</v>
+        <v>18.74822041521949</v>
       </c>
       <c r="G20">
-        <v>30.97414449630516</v>
+        <v>20.90916171254697</v>
       </c>
       <c r="H20">
-        <v>8.459824658929694</v>
+        <v>11.08605436671434</v>
       </c>
       <c r="I20">
-        <v>11.6000337898928</v>
+        <v>21.59295621990356</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.46758598133351</v>
+        <v>9.331193598044033</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14.73640109252196</v>
+        <v>17.79143606055111</v>
       </c>
       <c r="O20">
-        <v>16.01204941465216</v>
+        <v>15.95540139422002</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.41170165381651</v>
+        <v>15.97928420471064</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.732658139402757</v>
+        <v>3.199406557599904</v>
       </c>
       <c r="E21">
-        <v>15.95262416204066</v>
+        <v>19.52217293814552</v>
       </c>
       <c r="F21">
-        <v>23.70273813985661</v>
+        <v>19.08406605755291</v>
       </c>
       <c r="G21">
-        <v>33.00074767625357</v>
+        <v>21.60513583024541</v>
       </c>
       <c r="H21">
-        <v>8.765436985474429</v>
+        <v>11.1082903311097</v>
       </c>
       <c r="I21">
-        <v>11.10875669734898</v>
+        <v>21.42753351825825</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.12528756252818</v>
+        <v>9.528029614033036</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>14.95756552148919</v>
+        <v>17.82868892814058</v>
       </c>
       <c r="O21">
-        <v>17.03186930902473</v>
+        <v>16.11301375246137</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.14743582710083</v>
+        <v>16.23985394097009</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.839630291512063</v>
+        <v>3.227237095807417</v>
       </c>
       <c r="E22">
-        <v>16.09319736012543</v>
+        <v>19.53915603026623</v>
       </c>
       <c r="F22">
-        <v>24.61448880027405</v>
+        <v>19.30511262605257</v>
       </c>
       <c r="G22">
-        <v>34.28283145754398</v>
+        <v>22.05359070760298</v>
       </c>
       <c r="H22">
-        <v>8.965956148303226</v>
+        <v>11.12482389559121</v>
       </c>
       <c r="I22">
-        <v>10.79319555575369</v>
+        <v>21.32334379174152</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.5377064279975</v>
+        <v>9.655272560116526</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.10407208678907</v>
+        <v>17.85471899650638</v>
       </c>
       <c r="O22">
-        <v>17.70087379995224</v>
+        <v>16.2189985928276</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.75781514765721</v>
+        <v>16.10122684179249</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.782914174628978</v>
+        <v>3.212378171801747</v>
       </c>
       <c r="E23">
-        <v>16.01815487357805</v>
+        <v>19.52992351747973</v>
       </c>
       <c r="F23">
-        <v>24.13069149191787</v>
+        <v>19.18701956742913</v>
       </c>
       <c r="G23">
-        <v>33.60240956770368</v>
+        <v>21.81488298362617</v>
       </c>
       <c r="H23">
-        <v>8.858876254182332</v>
+        <v>11.11581752255645</v>
       </c>
       <c r="I23">
-        <v>10.96112154841835</v>
+        <v>21.37859373344852</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.3191792395051</v>
+        <v>9.587501174613951</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.02570788440127</v>
+        <v>17.84067395646092</v>
       </c>
       <c r="O23">
-        <v>17.3459193170005</v>
+        <v>16.16216996738868</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.21480510960224</v>
+        <v>15.56689075597368</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.559864452840379</v>
+        <v>3.156261883387776</v>
       </c>
       <c r="E24">
-        <v>15.73460138925322</v>
+        <v>19.49868663980863</v>
       </c>
       <c r="F24">
-        <v>22.23606805446344</v>
+        <v>18.74276315998602</v>
       </c>
       <c r="G24">
-        <v>30.94029842233333</v>
+        <v>20.89769100321339</v>
       </c>
       <c r="H24">
-        <v>8.454845834018796</v>
+        <v>11.08572492663087</v>
       </c>
       <c r="I24">
-        <v>11.60815879621849</v>
+        <v>21.59572641510443</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.45654074911016</v>
+        <v>9.327955591206946</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>14.73282136565896</v>
+        <v>17.79085597268724</v>
       </c>
       <c r="O24">
-        <v>15.9980951496596</v>
+        <v>15.95287770027522</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.5135292088029</v>
+        <v>14.97362378326025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.301933448597193</v>
+        <v>3.096356339245924</v>
       </c>
       <c r="E25">
-        <v>15.43214480846479</v>
+        <v>19.47316035379485</v>
       </c>
       <c r="F25">
-        <v>20.25149898757433</v>
+        <v>18.2728429432021</v>
       </c>
       <c r="G25">
-        <v>27.88427613222949</v>
+        <v>19.8868573731673</v>
       </c>
       <c r="H25">
-        <v>8.023853304277246</v>
+        <v>11.06194702992836</v>
       </c>
       <c r="I25">
-        <v>12.33077298591805</v>
+        <v>21.8468799857447</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.45073355654471</v>
+        <v>9.043284010725545</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>14.42620815650858</v>
+        <v>17.74451223896402</v>
       </c>
       <c r="O25">
-        <v>14.76124139788951</v>
+        <v>15.7408561304119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.5254717992426</v>
+        <v>16.1572120942349</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.05306225987883</v>
+        <v>3.09748577938411</v>
       </c>
       <c r="E2">
-        <v>19.46157463727772</v>
+        <v>15.21437382044154</v>
       </c>
       <c r="F2">
-        <v>17.93764801243444</v>
+        <v>18.75455138168003</v>
       </c>
       <c r="G2">
-        <v>19.13130549794963</v>
+        <v>25.47992665073678</v>
       </c>
       <c r="H2">
-        <v>11.05197927298044</v>
+        <v>7.712443523698152</v>
       </c>
       <c r="I2">
-        <v>22.04651378314569</v>
+        <v>12.88524933361768</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.831106694377269</v>
+        <v>9.644956519354672</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.71690969420926</v>
+        <v>14.20937548645364</v>
       </c>
       <c r="O2">
-        <v>15.59750735714329</v>
+        <v>13.82316162245628</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.21647929673234</v>
+        <v>15.17256868077304</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.024369112635032</v>
+        <v>2.950148931644422</v>
       </c>
       <c r="E3">
-        <v>19.45830949409602</v>
+        <v>15.07089038238598</v>
       </c>
       <c r="F3">
-        <v>17.71864379238568</v>
+        <v>17.69814607167592</v>
       </c>
       <c r="G3">
-        <v>18.61633113051755</v>
+        <v>23.81879639881823</v>
       </c>
       <c r="H3">
-        <v>11.04995445959457</v>
+        <v>7.506128859838322</v>
       </c>
       <c r="I3">
-        <v>22.19105478300767</v>
+        <v>13.27559077352207</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.686500625716381</v>
+        <v>9.05816935292772</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.70234755475438</v>
+        <v>14.06844995392381</v>
       </c>
       <c r="O3">
-        <v>15.50875811661337</v>
+        <v>13.17355060982572</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.02480320129745</v>
+        <v>14.53629752877522</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.007117189528183</v>
+        <v>2.855483607266657</v>
       </c>
       <c r="E4">
-        <v>19.45859612847356</v>
+        <v>14.98515935537342</v>
       </c>
       <c r="F4">
-        <v>17.58866452936656</v>
+        <v>17.03054533174766</v>
       </c>
       <c r="G4">
-        <v>18.30018959595875</v>
+        <v>22.7571113073498</v>
       </c>
       <c r="H4">
-        <v>11.05105097273099</v>
+        <v>7.382155598016338</v>
       </c>
       <c r="I4">
-        <v>22.28438800424045</v>
+        <v>13.5226335435924</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.597589588567175</v>
+        <v>8.67786745915104</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.6954752632378</v>
+        <v>13.9850406783591</v>
       </c>
       <c r="O4">
-        <v>15.4585418422201</v>
+        <v>12.76923684633407</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.94630526760923</v>
+        <v>14.26916358163353</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.000185819757807</v>
+        <v>2.815875123349714</v>
       </c>
       <c r="E5">
-        <v>19.4592935324771</v>
+        <v>14.950870733035</v>
       </c>
       <c r="F5">
-        <v>17.53689466272931</v>
+        <v>16.75404733980779</v>
       </c>
       <c r="G5">
-        <v>18.17161121209857</v>
+        <v>22.31423067184909</v>
       </c>
       <c r="H5">
-        <v>11.05208698005524</v>
+        <v>7.332373350567511</v>
       </c>
       <c r="I5">
-        <v>22.32357803814756</v>
+        <v>13.62518509254171</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.561369953207407</v>
+        <v>8.517880066757744</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.69319873371636</v>
+        <v>13.95185719892912</v>
       </c>
       <c r="O5">
-        <v>15.43917232788376</v>
+        <v>12.60335080354116</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.9332503654495</v>
+        <v>14.22433641697421</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.999041045819236</v>
+        <v>2.809236666159277</v>
       </c>
       <c r="E6">
-        <v>19.45944452808715</v>
+        <v>14.9452177395854</v>
       </c>
       <c r="F6">
-        <v>17.52837260852117</v>
+        <v>16.70787730110433</v>
       </c>
       <c r="G6">
-        <v>18.15028320691249</v>
+        <v>22.24008175384526</v>
       </c>
       <c r="H6">
-        <v>11.05229461024051</v>
+        <v>7.324153294474916</v>
       </c>
       <c r="I6">
-        <v>22.33015542618401</v>
+        <v>13.6423279725427</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.55535772488623</v>
+        <v>8.491012438017558</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.69285247071977</v>
+        <v>13.94639643746794</v>
       </c>
       <c r="O6">
-        <v>15.43602262265837</v>
+        <v>12.57574542800157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.02374598465645</v>
+        <v>14.53272645836254</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.007023301032878</v>
+        <v>2.854953574548651</v>
       </c>
       <c r="E7">
-        <v>19.45860317737669</v>
+        <v>14.98469423745154</v>
       </c>
       <c r="F7">
-        <v>17.58796140458206</v>
+        <v>17.0268339070374</v>
       </c>
       <c r="G7">
-        <v>18.29845420217027</v>
+        <v>22.75117950122406</v>
       </c>
       <c r="H7">
-        <v>11.05106255833384</v>
+        <v>7.381481153430336</v>
       </c>
       <c r="I7">
-        <v>22.28491184994446</v>
+        <v>13.52400894512745</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.597101010637109</v>
+        <v>8.675730068320428</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.69544243476803</v>
+        <v>13.98458986069097</v>
       </c>
       <c r="O7">
-        <v>15.45827616513166</v>
+        <v>12.76700385524169</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.41939714985156</v>
+        <v>15.82434868971471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.043097163155605</v>
+        <v>3.047569036526719</v>
       </c>
       <c r="E8">
-        <v>19.45997590597252</v>
+        <v>15.16444056324909</v>
       </c>
       <c r="F8">
-        <v>17.86124538923718</v>
+        <v>18.39441310303452</v>
       </c>
       <c r="G8">
-        <v>18.95387093810944</v>
+        <v>24.91596570891712</v>
       </c>
       <c r="H8">
-        <v>11.05079608512525</v>
+        <v>7.640779382931356</v>
       </c>
       <c r="I8">
-        <v>22.095401938398</v>
+        <v>13.01832495533155</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.781297579285912</v>
+        <v>9.446795186180921</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.71146155744707</v>
+        <v>14.16015044223908</v>
       </c>
       <c r="O8">
-        <v>15.56603093077027</v>
+        <v>13.60044397887958</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.1754529499095</v>
+        <v>18.1019104365885</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.116427798039722</v>
+        <v>3.391106128529178</v>
       </c>
       <c r="E9">
-        <v>19.48065123886015</v>
+        <v>15.5333984459795</v>
       </c>
       <c r="F9">
-        <v>18.42964792275113</v>
+        <v>20.91467848246038</v>
       </c>
       <c r="G9">
-        <v>20.22962326791431</v>
+        <v>28.93855689376471</v>
       </c>
       <c r="H9">
-        <v>11.0687897569815</v>
+        <v>8.16824200205164</v>
       </c>
       <c r="I9">
-        <v>21.76000274028024</v>
+        <v>12.08395545126863</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.139678396628149</v>
+        <v>10.7996516001007</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.75912097408643</v>
+        <v>14.52816642454831</v>
       </c>
       <c r="O9">
-        <v>15.81035511596174</v>
+        <v>15.1824886871181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.71339214678815</v>
+        <v>19.64498795211928</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.171456909187281</v>
+        <v>3.621782765991278</v>
       </c>
       <c r="E10">
-        <v>19.50653120089677</v>
+        <v>15.81138904463498</v>
       </c>
       <c r="F10">
-        <v>18.86274601309827</v>
+        <v>22.76084081906355</v>
       </c>
       <c r="G10">
-        <v>21.14864087778435</v>
+        <v>31.67725051106346</v>
       </c>
       <c r="H10">
-        <v>11.09321357186028</v>
+        <v>8.564204679278824</v>
       </c>
       <c r="I10">
-        <v>21.53546473132115</v>
+        <v>11.43065158275192</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.398839219717207</v>
+        <v>11.69657928663691</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.80380385494282</v>
+        <v>14.81162792830854</v>
       </c>
       <c r="O10">
-        <v>16.00865044564308</v>
+        <v>16.34039068930099</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.95325421613637</v>
+        <v>20.33738933957754</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.196649884570983</v>
+        <v>3.721884002987422</v>
       </c>
       <c r="E11">
-        <v>19.52056450677877</v>
+        <v>15.93869596394237</v>
       </c>
       <c r="F11">
-        <v>19.06220495620209</v>
+        <v>23.61107783129962</v>
       </c>
       <c r="G11">
-        <v>21.5603929766888</v>
+        <v>32.87190868647796</v>
       </c>
       <c r="H11">
-        <v>11.10673252049513</v>
+        <v>8.745583873341426</v>
       </c>
       <c r="I11">
-        <v>21.43802369373613</v>
+        <v>11.14026603251363</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.515352527466357</v>
+        <v>12.08368706431453</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.82617634194222</v>
+        <v>14.9431171525842</v>
       </c>
       <c r="O11">
-        <v>16.10262408007487</v>
+        <v>16.96459592101114</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.04330602051619</v>
+        <v>20.59382496659417</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.206205139178124</v>
+        <v>3.7590874142192</v>
       </c>
       <c r="E12">
-        <v>19.52619814974155</v>
+        <v>15.98697159000532</v>
       </c>
       <c r="F12">
-        <v>19.13800810935972</v>
+        <v>23.92771166022455</v>
       </c>
       <c r="G12">
-        <v>21.71522817968624</v>
+        <v>33.31701348287344</v>
       </c>
       <c r="H12">
-        <v>11.11219542454822</v>
+        <v>8.814405403186926</v>
       </c>
       <c r="I12">
-        <v>21.40179824946419</v>
+        <v>11.03125219011217</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.559236145938621</v>
+        <v>12.22728483368544</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.83493750799584</v>
+        <v>14.9932480925392</v>
       </c>
       <c r="O12">
-        <v>16.13872284948739</v>
+        <v>17.19697279413928</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.02394762525669</v>
+        <v>20.53885243845937</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.204146690293128</v>
+        <v>3.751106346341541</v>
       </c>
       <c r="E13">
-        <v>19.52497072182633</v>
+        <v>15.97657243538695</v>
       </c>
       <c r="F13">
-        <v>19.12167166964035</v>
+        <v>23.85975513990247</v>
       </c>
       <c r="G13">
-        <v>21.68193264703653</v>
+        <v>33.22147481262641</v>
       </c>
       <c r="H13">
-        <v>11.11100365756046</v>
+        <v>8.799577977876192</v>
       </c>
       <c r="I13">
-        <v>21.4095701440174</v>
+        <v>11.05468854631832</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.549796184916683</v>
+        <v>12.19649124905159</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.83303785424869</v>
+        <v>14.9824368489625</v>
       </c>
       <c r="O13">
-        <v>16.13092598830039</v>
+        <v>17.14710294507569</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.9606788861173</v>
+        <v>20.35860164577306</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.197435740376173</v>
+        <v>3.724958869778561</v>
       </c>
       <c r="E14">
-        <v>19.52102161810019</v>
+        <v>15.94266658930036</v>
       </c>
       <c r="F14">
-        <v>19.0684363146704</v>
+        <v>23.63723403012206</v>
       </c>
       <c r="G14">
-        <v>21.57315410344261</v>
+        <v>32.90867323988704</v>
       </c>
       <c r="H14">
-        <v>11.1071750882376</v>
+        <v>8.751243338843459</v>
       </c>
       <c r="I14">
-        <v>21.435029925625</v>
+        <v>11.13127855255584</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.518967834604529</v>
+        <v>12.09556079264745</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.82689136196479</v>
+        <v>14.94723481604775</v>
       </c>
       <c r="O14">
-        <v>16.10558383530833</v>
+        <v>16.98379341539937</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.92182121885418</v>
+        <v>20.24744393599353</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.193326842309347</v>
+        <v>3.708851079305701</v>
       </c>
       <c r="E15">
-        <v>19.51864412488706</v>
+        <v>15.92190543815208</v>
       </c>
       <c r="F15">
-        <v>19.03586128011202</v>
+        <v>23.50024065479307</v>
       </c>
       <c r="G15">
-        <v>21.50637758605516</v>
+        <v>32.71612698542334</v>
       </c>
       <c r="H15">
-        <v>11.10487463439399</v>
+        <v>8.721653661240365</v>
       </c>
       <c r="I15">
-        <v>21.45071238478446</v>
+        <v>11.17831482642225</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.500052532343163</v>
+        <v>12.03334890742691</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.82316396688064</v>
+        <v>14.92571589436432</v>
       </c>
       <c r="O15">
-        <v>16.09012696784538</v>
+        <v>16.88324315269934</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.6976119270008</v>
+        <v>19.59892896020167</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.169813041290602</v>
+        <v>3.615142934310236</v>
       </c>
       <c r="E16">
-        <v>19.50565910887518</v>
+        <v>15.80308159769493</v>
       </c>
       <c r="F16">
-        <v>18.84975327427371</v>
+        <v>22.70452669576411</v>
       </c>
       <c r="G16">
-        <v>21.12158926099771</v>
+        <v>31.59815254397492</v>
       </c>
       <c r="H16">
-        <v>11.09237831272934</v>
+        <v>8.552372531448702</v>
       </c>
       <c r="I16">
-        <v>21.54192711356495</v>
+        <v>11.44976336705227</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.391193655176561</v>
+        <v>11.67086133743217</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.80238250618312</v>
+        <v>14.80308365506401</v>
       </c>
       <c r="O16">
-        <v>16.00258242892555</v>
+        <v>16.2990347098257</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.55876505435433</v>
+        <v>19.19077155368145</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.155423501318324</v>
+        <v>3.55641167349194</v>
       </c>
       <c r="E17">
-        <v>19.4982682915759</v>
+        <v>15.73036488557359</v>
       </c>
       <c r="F17">
-        <v>18.73615093664236</v>
+        <v>22.20682876873116</v>
       </c>
       <c r="G17">
-        <v>20.88378522709278</v>
+        <v>30.89924586326588</v>
       </c>
       <c r="H17">
-        <v>11.08532722921472</v>
+        <v>8.448812646172268</v>
       </c>
       <c r="I17">
-        <v>21.59908676842097</v>
+        <v>11.61801022393315</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.324030457078807</v>
+        <v>11.44314105384862</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.79015427211365</v>
+        <v>14.72848462414396</v>
       </c>
       <c r="O17">
-        <v>15.94982160184781</v>
+        <v>15.9811766872115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.47845209204658</v>
+        <v>18.9636273391703</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.147162537323171</v>
+        <v>3.522176238295467</v>
       </c>
       <c r="E18">
-        <v>19.4942303859434</v>
+        <v>15.68862314169905</v>
       </c>
       <c r="F18">
-        <v>18.67104424453986</v>
+        <v>21.91704125879091</v>
       </c>
       <c r="G18">
-        <v>20.74642208179204</v>
+        <v>30.49242906768778</v>
       </c>
       <c r="H18">
-        <v>11.08149851265589</v>
+        <v>8.389367984577548</v>
       </c>
       <c r="I18">
-        <v>21.63240627287687</v>
+        <v>11.71542374778613</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.285272267218295</v>
+        <v>11.31019310805683</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.78331380890491</v>
+        <v>14.68581800814527</v>
       </c>
       <c r="O18">
-        <v>15.91983144052128</v>
+        <v>15.81393672520301</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.45118446082536</v>
+        <v>18.8870488394491</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.144368420235713</v>
+        <v>3.510506866927684</v>
       </c>
       <c r="E19">
-        <v>19.49289998532013</v>
+        <v>15.67450604055892</v>
       </c>
       <c r="F19">
-        <v>18.64904289818918</v>
+        <v>21.81831766652542</v>
       </c>
       <c r="G19">
-        <v>20.69981856928893</v>
+        <v>30.35385749087595</v>
       </c>
       <c r="H19">
-        <v>11.08024122028505</v>
+        <v>8.369263105184306</v>
       </c>
       <c r="I19">
-        <v>21.64376382004746</v>
+        <v>11.74851752688396</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.272128694890439</v>
+        <v>11.26484060312841</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.78103102531895</v>
+        <v>14.67141399157158</v>
       </c>
       <c r="O19">
-        <v>15.90973937312042</v>
+        <v>15.7571460797243</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.57359292027292</v>
+        <v>19.23461416488595</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.156953742834891</v>
+        <v>3.562710844578855</v>
       </c>
       <c r="E20">
-        <v>19.49903304136393</v>
+        <v>15.7380975144781</v>
       </c>
       <c r="F20">
-        <v>18.74822041521949</v>
+        <v>22.26017408712263</v>
       </c>
       <c r="G20">
-        <v>20.90916171254697</v>
+        <v>30.97414449630516</v>
       </c>
       <c r="H20">
-        <v>11.08605436671434</v>
+        <v>8.459824658929675</v>
       </c>
       <c r="I20">
-        <v>21.59295621990356</v>
+        <v>11.6000337898928</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.331193598044033</v>
+        <v>11.46758598133351</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.79143606055111</v>
+        <v>14.73640109252199</v>
       </c>
       <c r="O20">
-        <v>15.95540139422002</v>
+        <v>16.01204941465214</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.97928420471064</v>
+        <v>20.41170165381653</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.199406557599904</v>
+        <v>3.732658139402757</v>
       </c>
       <c r="E21">
-        <v>19.52217293814552</v>
+        <v>15.95262416204082</v>
       </c>
       <c r="F21">
-        <v>19.08406605755291</v>
+        <v>23.70273813985663</v>
       </c>
       <c r="G21">
-        <v>21.60513583024541</v>
+        <v>33.00074767625362</v>
       </c>
       <c r="H21">
-        <v>11.1082903311097</v>
+        <v>8.765436985474405</v>
       </c>
       <c r="I21">
-        <v>21.42753351825825</v>
+        <v>11.10875669734891</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.528029614033036</v>
+        <v>12.12528756252814</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.82868892814058</v>
+        <v>14.95756552148921</v>
       </c>
       <c r="O21">
-        <v>16.11301375246137</v>
+        <v>17.03186930902477</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.23985394097009</v>
+        <v>21.14743582710087</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.227237095807417</v>
+        <v>3.8396302915121</v>
       </c>
       <c r="E22">
-        <v>19.53915603026623</v>
+        <v>16.09319736012543</v>
       </c>
       <c r="F22">
-        <v>19.30511262605257</v>
+        <v>24.61448880027409</v>
       </c>
       <c r="G22">
-        <v>22.05359070760298</v>
+        <v>34.28283145754406</v>
       </c>
       <c r="H22">
-        <v>11.12482389559121</v>
+        <v>8.965956148303249</v>
       </c>
       <c r="I22">
-        <v>21.32334379174152</v>
+        <v>10.79319555575362</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.655272560116526</v>
+        <v>12.53770642799749</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.85471899650638</v>
+        <v>15.10407208678906</v>
       </c>
       <c r="O22">
-        <v>16.2189985928276</v>
+        <v>17.70087379995227</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.10122684179249</v>
+        <v>20.75781514765723</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.212378171801747</v>
+        <v>3.782914174629002</v>
       </c>
       <c r="E23">
-        <v>19.52992351747973</v>
+        <v>16.01815487357803</v>
       </c>
       <c r="F23">
-        <v>19.18701956742913</v>
+        <v>24.1306914919179</v>
       </c>
       <c r="G23">
-        <v>21.81488298362617</v>
+        <v>33.6024095677037</v>
       </c>
       <c r="H23">
-        <v>11.11581752255645</v>
+        <v>8.858876254182317</v>
       </c>
       <c r="I23">
-        <v>21.37859373344852</v>
+        <v>10.96112154841825</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.587501174613951</v>
+        <v>12.31917923950505</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.84067395646092</v>
+        <v>15.02570788440124</v>
       </c>
       <c r="O23">
-        <v>16.16216996738868</v>
+        <v>17.3459193170005</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.56689075597368</v>
+        <v>19.21480510960221</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.156261883387776</v>
+        <v>3.559864452840412</v>
       </c>
       <c r="E24">
-        <v>19.49868663980863</v>
+        <v>15.7346013892531</v>
       </c>
       <c r="F24">
-        <v>18.74276315998602</v>
+        <v>22.23606805446341</v>
       </c>
       <c r="G24">
-        <v>20.89769100321339</v>
+        <v>30.94029842233329</v>
       </c>
       <c r="H24">
-        <v>11.08572492663087</v>
+        <v>8.454845834018785</v>
       </c>
       <c r="I24">
-        <v>21.59572641510443</v>
+        <v>11.60815879621849</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.327955591206946</v>
+        <v>11.45654074911018</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.79085597268724</v>
+        <v>14.73282136565892</v>
       </c>
       <c r="O24">
-        <v>15.95287770027522</v>
+        <v>15.99809514965959</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.97362378326025</v>
+        <v>17.51352920880285</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.096356339245924</v>
+        <v>3.301933448597193</v>
       </c>
       <c r="E25">
-        <v>19.47316035379485</v>
+        <v>15.43214480846481</v>
       </c>
       <c r="F25">
-        <v>18.2728429432021</v>
+        <v>20.25149898757433</v>
       </c>
       <c r="G25">
-        <v>19.8868573731673</v>
+        <v>27.88427613222953</v>
       </c>
       <c r="H25">
-        <v>11.06194702992836</v>
+        <v>8.023853304277228</v>
       </c>
       <c r="I25">
-        <v>21.8468799857447</v>
+        <v>12.33077298591795</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.043284010725545</v>
+        <v>10.4507335565447</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.74451223896402</v>
+        <v>14.42620815650854</v>
       </c>
       <c r="O25">
-        <v>15.7408561304119</v>
+        <v>14.7612413978895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.1572120942349</v>
+        <v>11.17656422830753</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.09748577938411</v>
+        <v>4.343820017815013</v>
       </c>
       <c r="E2">
-        <v>15.21437382044154</v>
+        <v>11.00699772976682</v>
       </c>
       <c r="F2">
-        <v>18.75455138168003</v>
+        <v>23.02660474905793</v>
       </c>
       <c r="G2">
-        <v>25.47992665073678</v>
+        <v>31.56536426021073</v>
       </c>
       <c r="H2">
-        <v>7.712443523698152</v>
+        <v>2.956439323067412</v>
       </c>
       <c r="I2">
-        <v>12.88524933361768</v>
+        <v>4.094202728500306</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.54386233155395</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.09490307348281</v>
       </c>
       <c r="L2">
-        <v>9.644956519354672</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.91133057503146</v>
       </c>
       <c r="N2">
-        <v>14.20937548645364</v>
+        <v>6.632578902337747</v>
       </c>
       <c r="O2">
-        <v>13.82316162245628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.836806412614617</v>
+      </c>
+      <c r="P2">
+        <v>13.63070797296434</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.17256868077304</v>
+        <v>10.59064642362388</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.950148931644422</v>
+        <v>4.274875323338775</v>
       </c>
       <c r="E3">
-        <v>15.07089038238598</v>
+        <v>10.71416461749751</v>
       </c>
       <c r="F3">
-        <v>17.69814607167592</v>
+        <v>22.28181958951005</v>
       </c>
       <c r="G3">
-        <v>23.81879639881823</v>
+        <v>30.41918063329242</v>
       </c>
       <c r="H3">
-        <v>7.506128859838322</v>
+        <v>3.140221987985062</v>
       </c>
       <c r="I3">
-        <v>13.27559077352207</v>
+        <v>4.222157617237377</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.43806880475314</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.10156279650113</v>
       </c>
       <c r="L3">
-        <v>9.05816935292772</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.02413406301412</v>
       </c>
       <c r="N3">
-        <v>14.06844995392381</v>
+        <v>6.378105214073375</v>
       </c>
       <c r="O3">
-        <v>13.17355060982572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.491403655751107</v>
+      </c>
+      <c r="P3">
+        <v>13.77734705514877</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.53629752877522</v>
+        <v>10.2103680171345</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.855483607266657</v>
+        <v>4.231528577040705</v>
       </c>
       <c r="E4">
-        <v>14.98515935537342</v>
+        <v>10.53017125315384</v>
       </c>
       <c r="F4">
-        <v>17.03054533174766</v>
+        <v>21.82463518858759</v>
       </c>
       <c r="G4">
-        <v>22.7571113073498</v>
+        <v>29.71150764809039</v>
       </c>
       <c r="H4">
-        <v>7.382155598016338</v>
+        <v>3.257142852860523</v>
       </c>
       <c r="I4">
-        <v>13.5226335435924</v>
+        <v>4.304270371705035</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.37724409512023</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.10661200443339</v>
       </c>
       <c r="L4">
-        <v>8.67786745915104</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.45179608409159</v>
       </c>
       <c r="N4">
-        <v>13.9850406783591</v>
+        <v>6.218254585685179</v>
       </c>
       <c r="O4">
-        <v>12.76923684633407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.272637815052152</v>
+      </c>
+      <c r="P4">
+        <v>13.86850284941526</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26916358163353</v>
+        <v>10.0407222729131</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.815875123349714</v>
+        <v>4.214273802634503</v>
       </c>
       <c r="E5">
-        <v>14.950870733035</v>
+        <v>10.45458236121034</v>
       </c>
       <c r="F5">
-        <v>16.75404733980779</v>
+        <v>21.6310214958717</v>
       </c>
       <c r="G5">
-        <v>22.31423067184909</v>
+        <v>29.4087770152956</v>
       </c>
       <c r="H5">
-        <v>7.332373350567511</v>
+        <v>3.306194427557264</v>
       </c>
       <c r="I5">
-        <v>13.62518509254171</v>
+        <v>4.341132622746692</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.35095356158388</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.10167666846109</v>
       </c>
       <c r="L5">
-        <v>8.517880066757744</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.21440822519537</v>
       </c>
       <c r="N5">
-        <v>13.95185719892912</v>
+        <v>6.154613093553125</v>
       </c>
       <c r="O5">
-        <v>12.60335080354116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.179814710945999</v>
+      </c>
+      <c r="P5">
+        <v>13.90455105236567</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.22433641697421</v>
+        <v>10.00046503616963</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.809236666159277</v>
+        <v>4.212202337144886</v>
       </c>
       <c r="E6">
-        <v>14.9452177395854</v>
+        <v>10.4425769382682</v>
       </c>
       <c r="F6">
-        <v>16.70787730110433</v>
+        <v>21.58962172574853</v>
       </c>
       <c r="G6">
-        <v>22.24008175384526</v>
+        <v>29.34166040812905</v>
       </c>
       <c r="H6">
-        <v>7.324153294474916</v>
+        <v>3.314846904358407</v>
       </c>
       <c r="I6">
-        <v>13.6423279725427</v>
+        <v>4.350489732312237</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.34355239295147</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.09203992975341</v>
       </c>
       <c r="L6">
-        <v>8.491012438017558</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.17793566775192</v>
       </c>
       <c r="N6">
-        <v>13.94639643746794</v>
+        <v>6.146851867014388</v>
       </c>
       <c r="O6">
-        <v>12.57574542800157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.161741540213869</v>
+      </c>
+      <c r="P6">
+        <v>13.90885668679397</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.53272645836254</v>
+        <v>10.17650745734133</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.854953574548651</v>
+        <v>4.233518275509037</v>
       </c>
       <c r="E7">
-        <v>14.98469423745154</v>
+        <v>10.53087304806245</v>
       </c>
       <c r="F7">
-        <v>17.0268339070374</v>
+        <v>21.79699215145958</v>
       </c>
       <c r="G7">
-        <v>22.75117950122406</v>
+        <v>29.66208170553652</v>
       </c>
       <c r="H7">
-        <v>7.381481153430336</v>
+        <v>3.258990413822122</v>
       </c>
       <c r="I7">
-        <v>13.52400894512745</v>
+        <v>4.313174050592189</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.36846909425792</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.0824746376699</v>
       </c>
       <c r="L7">
-        <v>8.675730068320428</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.45761237286595</v>
       </c>
       <c r="N7">
-        <v>13.98458986069097</v>
+        <v>6.225094462631932</v>
       </c>
       <c r="O7">
-        <v>12.76700385524169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.26446548953068</v>
+      </c>
+      <c r="P7">
+        <v>13.86440956294478</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.82434868971471</v>
+        <v>10.9396715187461</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.047569036526719</v>
+        <v>4.323253159438998</v>
       </c>
       <c r="E8">
-        <v>15.16444056324909</v>
+        <v>10.90935922922387</v>
       </c>
       <c r="F8">
-        <v>18.39441310303452</v>
+        <v>22.73820000558862</v>
       </c>
       <c r="G8">
-        <v>24.91596570891712</v>
+        <v>31.1140060899371</v>
       </c>
       <c r="H8">
-        <v>7.640779382931356</v>
+        <v>3.020446786653022</v>
       </c>
       <c r="I8">
-        <v>13.01832495533155</v>
+        <v>4.148171078822722</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.49559275079462</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.06544262533198</v>
       </c>
       <c r="L8">
-        <v>9.446795186180921</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.62225329870105</v>
       </c>
       <c r="N8">
-        <v>14.16015044223908</v>
+        <v>6.555358764964174</v>
       </c>
       <c r="O8">
-        <v>13.60044397887958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.710389827892438</v>
+      </c>
+      <c r="P8">
+        <v>13.67525973200297</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.1019104365885</v>
+        <v>12.32085658842067</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.391106128529178</v>
+        <v>4.486870482147941</v>
       </c>
       <c r="E9">
-        <v>15.5333984459795</v>
+        <v>11.6169138677023</v>
       </c>
       <c r="F9">
-        <v>20.91467848246038</v>
+        <v>24.61721694857375</v>
       </c>
       <c r="G9">
-        <v>28.93855689376471</v>
+        <v>33.99092452399942</v>
       </c>
       <c r="H9">
-        <v>8.16824200205164</v>
+        <v>2.582330844441016</v>
       </c>
       <c r="I9">
-        <v>12.08395545126863</v>
+        <v>3.838615435724513</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.7928151113368</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.0823435302253</v>
       </c>
       <c r="L9">
-        <v>10.7996516001007</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.67191282649285</v>
       </c>
       <c r="N9">
-        <v>14.52816642454831</v>
+        <v>7.158678684702332</v>
       </c>
       <c r="O9">
-        <v>15.1824886871181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.53933153145992</v>
+      </c>
+      <c r="P9">
+        <v>13.32019418235405</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.64498795211928</v>
+        <v>13.13795286429098</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.621782765991278</v>
+        <v>4.61680311351782</v>
       </c>
       <c r="E10">
-        <v>15.81138904463498</v>
+        <v>12.15706392168361</v>
       </c>
       <c r="F10">
-        <v>22.76084081906355</v>
+        <v>25.85288921166185</v>
       </c>
       <c r="G10">
-        <v>31.67725051106346</v>
+        <v>35.83108052027904</v>
       </c>
       <c r="H10">
-        <v>8.564204679278824</v>
+        <v>2.308294923589547</v>
       </c>
       <c r="I10">
-        <v>11.43065158275192</v>
+        <v>3.638429896337458</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.98544641073528</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.99470377663853</v>
       </c>
       <c r="L10">
-        <v>11.69657928663691</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>18.06290229323654</v>
       </c>
       <c r="N10">
-        <v>14.81162792830854</v>
+        <v>7.472824111830358</v>
       </c>
       <c r="O10">
-        <v>16.34039068930099</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.01217731607969</v>
+      </c>
+      <c r="P10">
+        <v>13.04457307871263</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.33738933957754</v>
+        <v>12.77126370184146</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.721884002987422</v>
+        <v>4.807116627529323</v>
       </c>
       <c r="E11">
-        <v>15.93869596394237</v>
+        <v>12.91577539974833</v>
       </c>
       <c r="F11">
-        <v>23.61107783129962</v>
+        <v>25.36757104529472</v>
       </c>
       <c r="G11">
-        <v>32.87190868647796</v>
+        <v>34.80200864566918</v>
       </c>
       <c r="H11">
-        <v>8.745583873341426</v>
+        <v>3.155157244901994</v>
       </c>
       <c r="I11">
-        <v>11.14026603251363</v>
+        <v>3.615703101000662</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.69420616606581</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.1413400461023</v>
       </c>
       <c r="L11">
-        <v>12.08368706431453</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.80992413363318</v>
       </c>
       <c r="N11">
-        <v>14.9431171525842</v>
+        <v>6.683680272857476</v>
       </c>
       <c r="O11">
-        <v>16.96459592101114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.40800943329801</v>
+      </c>
+      <c r="P11">
+        <v>12.79456515885666</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.59382496659417</v>
+        <v>12.32664316451269</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.7590874142192</v>
+        <v>4.946970281751608</v>
       </c>
       <c r="E12">
-        <v>15.98697159000532</v>
+        <v>13.6813865676073</v>
       </c>
       <c r="F12">
-        <v>23.92771166022455</v>
+        <v>24.71460725886413</v>
       </c>
       <c r="G12">
-        <v>33.31701348287344</v>
+        <v>33.57926188444458</v>
       </c>
       <c r="H12">
-        <v>8.814405403186926</v>
+        <v>4.429630606182303</v>
       </c>
       <c r="I12">
-        <v>11.03125219011217</v>
+        <v>3.618733374205941</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.41176298782333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.51381649586313</v>
       </c>
       <c r="L12">
-        <v>12.22728483368544</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>19.14784667429277</v>
       </c>
       <c r="N12">
-        <v>14.9932480925392</v>
+        <v>5.950362413608108</v>
       </c>
       <c r="O12">
-        <v>17.19697279413928</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>9.808048825680748</v>
+      </c>
+      <c r="P12">
+        <v>12.67787332700916</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.53885243845937</v>
+        <v>11.74400524994676</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.751106346341541</v>
+        <v>5.059239251205878</v>
       </c>
       <c r="E13">
-        <v>15.97657243538695</v>
+        <v>14.46935817965648</v>
       </c>
       <c r="F13">
-        <v>23.85975513990247</v>
+        <v>23.83843692461275</v>
       </c>
       <c r="G13">
-        <v>33.22147481262641</v>
+        <v>32.03344084608651</v>
       </c>
       <c r="H13">
-        <v>8.799577977876192</v>
+        <v>5.796621669856212</v>
       </c>
       <c r="I13">
-        <v>11.05468854631832</v>
+        <v>3.655392383220515</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.10275091643465</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.9926310011997</v>
       </c>
       <c r="L13">
-        <v>12.19649124905159</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>19.21195316719174</v>
       </c>
       <c r="N13">
-        <v>14.9824368489625</v>
+        <v>5.220434468714346</v>
       </c>
       <c r="O13">
-        <v>17.14710294507569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.156800608711055</v>
+      </c>
+      <c r="P13">
+        <v>12.64834346664213</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.35860164577306</v>
+        <v>11.2587574045824</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.724958869778561</v>
+        <v>5.126953737672634</v>
       </c>
       <c r="E14">
-        <v>15.94266658930036</v>
+        <v>15.05013712060518</v>
       </c>
       <c r="F14">
-        <v>23.63723403012206</v>
+        <v>23.10834380709434</v>
       </c>
       <c r="G14">
-        <v>32.90867323988704</v>
+        <v>30.77554080414233</v>
       </c>
       <c r="H14">
-        <v>8.751243338843459</v>
+        <v>6.780038733336356</v>
       </c>
       <c r="I14">
-        <v>11.13127855255584</v>
+        <v>3.698599985887125</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.871533601892573</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.68324467785151</v>
       </c>
       <c r="L14">
-        <v>12.09556079264745</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.13629469371063</v>
       </c>
       <c r="N14">
-        <v>14.94723481604775</v>
+        <v>4.720281383971373</v>
       </c>
       <c r="O14">
-        <v>16.98379341539937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.674559809788406</v>
+      </c>
+      <c r="P14">
+        <v>12.66955383787708</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.24744393599353</v>
+        <v>11.10017842142345</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.708851079305701</v>
+        <v>5.137463995147776</v>
       </c>
       <c r="E15">
-        <v>15.92190543815208</v>
+        <v>15.17362329443939</v>
       </c>
       <c r="F15">
-        <v>23.50024065479307</v>
+        <v>22.87460926068806</v>
       </c>
       <c r="G15">
-        <v>32.71612698542334</v>
+        <v>30.38458362160107</v>
       </c>
       <c r="H15">
-        <v>8.721653661240365</v>
+        <v>7.010956510347517</v>
       </c>
       <c r="I15">
-        <v>11.17831482642225</v>
+        <v>3.720767949826131</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.807664577546161</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.62080720779316</v>
       </c>
       <c r="L15">
-        <v>12.03334890742691</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.06173699741879</v>
       </c>
       <c r="N15">
-        <v>14.92571589436432</v>
+        <v>4.600728991286635</v>
       </c>
       <c r="O15">
-        <v>16.88324315269934</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.543697302737217</v>
+      </c>
+      <c r="P15">
+        <v>12.68879585073746</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.59892896020167</v>
+        <v>10.82349156004804</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.615142934310236</v>
+        <v>5.060845514780683</v>
       </c>
       <c r="E16">
-        <v>15.80308159769493</v>
+        <v>14.80791835830672</v>
       </c>
       <c r="F16">
-        <v>22.70452669576411</v>
+        <v>22.45665635721986</v>
       </c>
       <c r="G16">
-        <v>31.59815254397492</v>
+        <v>29.78414010193785</v>
       </c>
       <c r="H16">
-        <v>8.552372531448702</v>
+        <v>6.826570226131688</v>
       </c>
       <c r="I16">
-        <v>11.44976336705227</v>
+        <v>3.804852967101911</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.77367769147828</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.75794050552238</v>
       </c>
       <c r="L16">
-        <v>11.67086133743217</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.48965845082725</v>
       </c>
       <c r="N16">
-        <v>14.80308365506401</v>
+        <v>4.590786866116813</v>
       </c>
       <c r="O16">
-        <v>16.2990347098257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.447223871166178</v>
+      </c>
+      <c r="P16">
+        <v>12.80309657747485</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.19077155368145</v>
+        <v>10.87680718903861</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.55641167349194</v>
+        <v>4.964726291066614</v>
       </c>
       <c r="E17">
-        <v>15.73036488557359</v>
+        <v>14.18902782860883</v>
       </c>
       <c r="F17">
-        <v>22.20682876873116</v>
+        <v>22.53954087530734</v>
       </c>
       <c r="G17">
-        <v>30.89924586326588</v>
+        <v>30.02131441292944</v>
       </c>
       <c r="H17">
-        <v>8.448812646172268</v>
+        <v>6.134918899746918</v>
       </c>
       <c r="I17">
-        <v>11.61801022393315</v>
+        <v>3.847067554992615</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.873111628143191</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.01912088595972</v>
       </c>
       <c r="L17">
-        <v>11.44314105384862</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.08370254020558</v>
       </c>
       <c r="N17">
-        <v>14.72848462414396</v>
+        <v>4.848657037200981</v>
       </c>
       <c r="O17">
-        <v>15.9811766872115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.633698809418688</v>
+      </c>
+      <c r="P17">
+        <v>12.8788869005211</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.9636273391703</v>
+        <v>11.24543083775527</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.522176238295467</v>
+        <v>4.842605720226378</v>
       </c>
       <c r="E18">
-        <v>15.68862314169905</v>
+        <v>13.35352681252001</v>
       </c>
       <c r="F18">
-        <v>21.91704125879091</v>
+        <v>23.07534949492634</v>
       </c>
       <c r="G18">
-        <v>30.49242906768778</v>
+        <v>31.03047856166093</v>
       </c>
       <c r="H18">
-        <v>8.389367984577548</v>
+        <v>4.969028581866051</v>
       </c>
       <c r="I18">
-        <v>11.71542374778613</v>
+        <v>3.846608650968408</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.10170120234964</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.45914256435126</v>
       </c>
       <c r="L18">
-        <v>11.31019310805683</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>17.77577152328057</v>
       </c>
       <c r="N18">
-        <v>14.68581800814527</v>
+        <v>5.386281540210955</v>
       </c>
       <c r="O18">
-        <v>15.81393672520301</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.09659406758572</v>
+      </c>
+      <c r="P18">
+        <v>12.94615716418105</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.8870488394491</v>
+        <v>11.78606681457818</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.510506866927684</v>
+        <v>4.720159541658576</v>
       </c>
       <c r="E19">
-        <v>15.67450604055892</v>
+        <v>12.58002459901861</v>
       </c>
       <c r="F19">
-        <v>21.81831766652542</v>
+        <v>23.88173647861727</v>
       </c>
       <c r="G19">
-        <v>30.35385749087595</v>
+        <v>32.48966997185057</v>
       </c>
       <c r="H19">
-        <v>8.369263105184306</v>
+        <v>3.642592326567982</v>
       </c>
       <c r="I19">
-        <v>11.74851752688396</v>
+        <v>3.825239606637322</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.40033507248721</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.02053597588218</v>
       </c>
       <c r="L19">
-        <v>11.26484060312841</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>17.58858301385249</v>
       </c>
       <c r="N19">
-        <v>14.67141399157158</v>
+        <v>6.142425663926052</v>
       </c>
       <c r="O19">
-        <v>15.7571460797243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.742278470843974</v>
+      </c>
+      <c r="P19">
+        <v>13.02033749776693</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.23461416488595</v>
+        <v>12.84726195980813</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.562710844578855</v>
+        <v>4.590907881092359</v>
       </c>
       <c r="E20">
-        <v>15.7380975144781</v>
+        <v>12.02535173176447</v>
       </c>
       <c r="F20">
-        <v>22.26017408712263</v>
+        <v>25.4576771753546</v>
       </c>
       <c r="G20">
-        <v>30.97414449630516</v>
+        <v>35.22242163364044</v>
       </c>
       <c r="H20">
-        <v>8.459824658929675</v>
+        <v>2.381854180640607</v>
       </c>
       <c r="I20">
-        <v>11.6000337898928</v>
+        <v>3.71706926340789</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.90714090685061</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.94135783774077</v>
       </c>
       <c r="L20">
-        <v>11.46758598133351</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.72962847965523</v>
       </c>
       <c r="N20">
-        <v>14.73640109252199</v>
+        <v>7.406713598293556</v>
       </c>
       <c r="O20">
-        <v>16.01204941465214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>10.86770926936472</v>
+      </c>
+      <c r="P20">
+        <v>13.10387482048324</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.41170165381653</v>
+        <v>13.58393151046153</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.732658139402757</v>
+        <v>4.665743432265628</v>
       </c>
       <c r="E21">
-        <v>15.95262416204082</v>
+        <v>12.37933105249644</v>
       </c>
       <c r="F21">
-        <v>23.70273813985663</v>
+        <v>26.59665735363921</v>
       </c>
       <c r="G21">
-        <v>33.00074767625362</v>
+        <v>36.97158468464759</v>
       </c>
       <c r="H21">
-        <v>8.765436985474405</v>
+        <v>2.13253203415227</v>
       </c>
       <c r="I21">
-        <v>11.10875669734891</v>
+        <v>3.553333881877554</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.13356117429996</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.03619544173234</v>
       </c>
       <c r="L21">
-        <v>12.12528756252814</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.72506105653611</v>
       </c>
       <c r="N21">
-        <v>14.95756552148921</v>
+        <v>7.806069252604399</v>
       </c>
       <c r="O21">
-        <v>17.03186930902477</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.36708196922192</v>
+      </c>
+      <c r="P21">
+        <v>12.92203408290115</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.14743582710087</v>
+        <v>14.0347463782433</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.8396302915121</v>
+        <v>4.717746425048961</v>
       </c>
       <c r="E22">
-        <v>16.09319736012543</v>
+        <v>12.62426786978621</v>
       </c>
       <c r="F22">
-        <v>24.61448880027409</v>
+        <v>27.30064399368941</v>
       </c>
       <c r="G22">
-        <v>34.28283145754406</v>
+        <v>38.04047808887528</v>
       </c>
       <c r="H22">
-        <v>8.965956148303249</v>
+        <v>1.985313780708459</v>
       </c>
       <c r="I22">
-        <v>10.79319555575362</v>
+        <v>3.441278613669922</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.273340816257</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.08146316469319</v>
       </c>
       <c r="L22">
-        <v>12.53770642799749</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>19.35134059229931</v>
       </c>
       <c r="N22">
-        <v>15.10407208678906</v>
+        <v>7.997665885224061</v>
       </c>
       <c r="O22">
-        <v>17.70087379995227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.64421204308515</v>
+      </c>
+      <c r="P22">
+        <v>12.80000594983383</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.75781514765723</v>
+        <v>13.82426855258121</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.782914174629002</v>
+        <v>4.687362652894533</v>
       </c>
       <c r="E23">
-        <v>16.01815487357803</v>
+        <v>12.49099912875542</v>
       </c>
       <c r="F23">
-        <v>24.1306914919179</v>
+        <v>26.9493828888938</v>
       </c>
       <c r="G23">
-        <v>33.6024095677037</v>
+        <v>37.51357998512941</v>
       </c>
       <c r="H23">
-        <v>8.858876254182317</v>
+        <v>2.062545261104793</v>
       </c>
       <c r="I23">
-        <v>10.96112154841825</v>
+        <v>3.49037469714444</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.20735532138126</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.08436763496168</v>
       </c>
       <c r="L23">
-        <v>12.31917923950505</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>19.01139601640081</v>
       </c>
       <c r="N23">
-        <v>15.02570788440124</v>
+        <v>7.888461805816227</v>
       </c>
       <c r="O23">
-        <v>17.3459193170005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.50375957726534</v>
+      </c>
+      <c r="P23">
+        <v>12.86961919246181</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.21480510960221</v>
+        <v>12.94430028009634</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.559864452840412</v>
+        <v>4.574405479155154</v>
       </c>
       <c r="E24">
-        <v>15.7346013892531</v>
+        <v>11.98680776441998</v>
       </c>
       <c r="F24">
-        <v>22.23606805446341</v>
+        <v>25.57136359623457</v>
       </c>
       <c r="G24">
-        <v>30.94029842233329</v>
+        <v>35.42989279658988</v>
       </c>
       <c r="H24">
-        <v>8.454845834018785</v>
+        <v>2.36259708063502</v>
       </c>
       <c r="I24">
-        <v>11.60815879621849</v>
+        <v>3.698395038162527</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.95161854890836</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.05555527413178</v>
       </c>
       <c r="L24">
-        <v>11.45654074911018</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.68775304918094</v>
       </c>
       <c r="N24">
-        <v>14.73282136565892</v>
+        <v>7.476545674254755</v>
       </c>
       <c r="O24">
-        <v>15.99809514965959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>10.94507927209597</v>
+      </c>
+      <c r="P24">
+        <v>13.12707111387424</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.51352920880285</v>
+        <v>11.91645809438409</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.301933448597193</v>
+        <v>4.44767799265948</v>
       </c>
       <c r="E25">
-        <v>15.43214480846481</v>
+        <v>11.43232215160668</v>
       </c>
       <c r="F25">
-        <v>20.25149898757433</v>
+        <v>24.07046306855065</v>
       </c>
       <c r="G25">
-        <v>27.88427613222953</v>
+        <v>33.14670160932976</v>
       </c>
       <c r="H25">
-        <v>8.023853304277228</v>
+        <v>2.699429050276316</v>
       </c>
       <c r="I25">
-        <v>12.33077298591795</v>
+        <v>3.9342908567764</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.69428434977652</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.03442904447156</v>
       </c>
       <c r="L25">
-        <v>10.4507335565447</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>16.1547686179685</v>
       </c>
       <c r="N25">
-        <v>14.42620815650854</v>
+        <v>7.011674351788469</v>
       </c>
       <c r="O25">
-        <v>14.7612413978895</v>
+        <v>10.31046441026846</v>
+      </c>
+      <c r="P25">
+        <v>13.40803756146133</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.17656422830753</v>
+        <v>10.30455461220395</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.343820017815013</v>
+        <v>4.371652867272648</v>
       </c>
       <c r="E2">
-        <v>11.00699772976682</v>
+        <v>10.56572193258096</v>
       </c>
       <c r="F2">
-        <v>23.02660474905793</v>
+        <v>22.53064180651583</v>
       </c>
       <c r="G2">
-        <v>31.56536426021073</v>
+        <v>30.16364925781955</v>
       </c>
       <c r="H2">
-        <v>2.956439323067412</v>
+        <v>2.769911934277614</v>
       </c>
       <c r="I2">
-        <v>4.094202728500306</v>
+        <v>3.813851132377565</v>
       </c>
       <c r="J2">
-        <v>10.54386233155395</v>
+        <v>10.81088900249737</v>
       </c>
       <c r="K2">
-        <v>18.09490307348281</v>
+        <v>16.98868737328453</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.3037331660431</v>
       </c>
       <c r="M2">
-        <v>14.91133057503146</v>
+        <v>11.79608266522345</v>
       </c>
       <c r="N2">
-        <v>6.632578902337747</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.836806412614617</v>
+        <v>14.9768425591192</v>
       </c>
       <c r="P2">
-        <v>13.63070797296434</v>
+        <v>6.977080994209656</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.642376577239951</v>
+      </c>
+      <c r="R2">
+        <v>13.35522520863662</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.59064642362388</v>
+        <v>9.777315080780808</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.274875323338775</v>
+        <v>4.286287170061996</v>
       </c>
       <c r="E3">
-        <v>10.71416461749751</v>
+        <v>10.26371771341891</v>
       </c>
       <c r="F3">
-        <v>22.28181958951005</v>
+        <v>21.84368242665869</v>
       </c>
       <c r="G3">
-        <v>30.41918063329242</v>
+        <v>29.12971512895814</v>
       </c>
       <c r="H3">
-        <v>3.140221987985062</v>
+        <v>2.939730309214259</v>
       </c>
       <c r="I3">
-        <v>4.222157617237377</v>
+        <v>3.923511902881007</v>
       </c>
       <c r="J3">
-        <v>10.43806880475314</v>
+        <v>10.68766502658005</v>
       </c>
       <c r="K3">
-        <v>18.10156279650113</v>
+        <v>17.04487060308031</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.42669985471449</v>
       </c>
       <c r="M3">
-        <v>14.02413406301412</v>
+        <v>11.79760567081677</v>
       </c>
       <c r="N3">
-        <v>6.378105214073375</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.491403655751107</v>
+        <v>14.06784849241733</v>
       </c>
       <c r="P3">
-        <v>13.77734705514877</v>
+        <v>6.715321536607423</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.311563397662445</v>
+      </c>
+      <c r="R3">
+        <v>13.50222350820093</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.2103680171345</v>
+        <v>9.433301884197933</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.231528577040705</v>
+        <v>4.232722415365017</v>
       </c>
       <c r="E4">
-        <v>10.53017125315384</v>
+        <v>10.07458561086339</v>
       </c>
       <c r="F4">
-        <v>21.82463518858759</v>
+        <v>21.42178789233775</v>
       </c>
       <c r="G4">
-        <v>29.71150764809039</v>
+        <v>28.49638476819667</v>
       </c>
       <c r="H4">
-        <v>3.257142852860523</v>
+        <v>3.04780761829956</v>
       </c>
       <c r="I4">
-        <v>4.304270371705035</v>
+        <v>3.994195853656347</v>
       </c>
       <c r="J4">
-        <v>10.37724409512023</v>
+        <v>10.61304871191648</v>
       </c>
       <c r="K4">
-        <v>18.10661200443339</v>
+        <v>17.07949146385525</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.50257421328489</v>
       </c>
       <c r="M4">
-        <v>13.45179608409159</v>
+        <v>11.81078704418514</v>
       </c>
       <c r="N4">
-        <v>6.218254585685179</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.272637815052152</v>
+        <v>13.48102046009756</v>
       </c>
       <c r="P4">
-        <v>13.86850284941526</v>
+        <v>6.551443198923382</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.101762343683221</v>
+      </c>
+      <c r="R4">
+        <v>13.59375019636433</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.0407222729131</v>
+        <v>9.278777613042315</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.214273802634503</v>
+        <v>4.211276565649053</v>
       </c>
       <c r="E5">
-        <v>10.45458236121034</v>
+        <v>9.99746487318099</v>
       </c>
       <c r="F5">
-        <v>21.6310214958717</v>
+        <v>21.24291789657436</v>
       </c>
       <c r="G5">
-        <v>29.4087770152956</v>
+        <v>28.22595577069642</v>
       </c>
       <c r="H5">
-        <v>3.306194427557264</v>
+        <v>3.093162088761949</v>
       </c>
       <c r="I5">
-        <v>4.341132622746692</v>
+        <v>4.026755148064707</v>
       </c>
       <c r="J5">
-        <v>10.35095356158388</v>
+        <v>10.58055602259872</v>
       </c>
       <c r="K5">
-        <v>18.10167666846109</v>
+        <v>17.0871231810042</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.52719156556762</v>
       </c>
       <c r="M5">
-        <v>13.21440822519537</v>
+        <v>11.81579374879562</v>
       </c>
       <c r="N5">
-        <v>6.154613093553125</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.179814710945999</v>
+        <v>13.23734289061483</v>
       </c>
       <c r="P5">
-        <v>13.90455105236567</v>
+        <v>6.486086721753156</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.012705652387563</v>
+      </c>
+      <c r="R5">
+        <v>13.63023368387431</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.00046503616963</v>
+        <v>9.241445192407925</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.212202337144886</v>
+        <v>4.208509276931911</v>
       </c>
       <c r="E6">
-        <v>10.4425769382682</v>
+        <v>9.985733726204739</v>
       </c>
       <c r="F6">
-        <v>21.58962172574853</v>
+        <v>21.20452337639931</v>
       </c>
       <c r="G6">
-        <v>29.34166040812905</v>
+        <v>28.16516823214946</v>
       </c>
       <c r="H6">
-        <v>3.314846904358407</v>
+        <v>3.101167501054743</v>
       </c>
       <c r="I6">
-        <v>4.350489732312237</v>
+        <v>4.035930014710233</v>
       </c>
       <c r="J6">
-        <v>10.34355239295147</v>
+        <v>10.57229286046763</v>
       </c>
       <c r="K6">
-        <v>18.09203992975341</v>
+        <v>17.08045105695853</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.52348642628348</v>
       </c>
       <c r="M6">
-        <v>13.17793566775192</v>
+        <v>11.81258816337137</v>
       </c>
       <c r="N6">
-        <v>6.146851867014388</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.161741540213869</v>
+        <v>13.19966991961694</v>
       </c>
       <c r="P6">
-        <v>13.90885668679397</v>
+        <v>6.477806093162116</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.995404908109769</v>
+      </c>
+      <c r="R6">
+        <v>13.63491715415503</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.17650745734133</v>
+        <v>9.402664943808817</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.233518275509037</v>
+        <v>4.237448215084149</v>
       </c>
       <c r="E7">
-        <v>10.53087304806245</v>
+        <v>10.07343338601351</v>
       </c>
       <c r="F7">
-        <v>21.79699215145958</v>
+        <v>21.37152583063443</v>
       </c>
       <c r="G7">
-        <v>29.66208170553652</v>
+        <v>28.52838738008864</v>
       </c>
       <c r="H7">
-        <v>3.258990413822122</v>
+        <v>3.050035079475099</v>
       </c>
       <c r="I7">
-        <v>4.313174050592189</v>
+        <v>4.004792304788404</v>
       </c>
       <c r="J7">
-        <v>10.36846909425792</v>
+        <v>10.55293795148397</v>
       </c>
       <c r="K7">
-        <v>18.0824746376699</v>
+        <v>17.05285358060242</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.47724036034288</v>
       </c>
       <c r="M7">
-        <v>13.45761237286595</v>
+        <v>11.79595626366956</v>
       </c>
       <c r="N7">
-        <v>6.225094462631932</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.26446548953068</v>
+        <v>13.47578324806884</v>
       </c>
       <c r="P7">
-        <v>13.86440956294478</v>
+        <v>6.55511092773594</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.093217460562514</v>
+      </c>
+      <c r="R7">
+        <v>13.58921345083701</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.9396715187461</v>
+        <v>10.09520079870599</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.323253159438998</v>
+        <v>4.354785113957277</v>
       </c>
       <c r="E8">
-        <v>10.90935922922387</v>
+        <v>10.45608143722227</v>
       </c>
       <c r="F8">
-        <v>22.73820000558862</v>
+        <v>22.18623451970082</v>
       </c>
       <c r="G8">
-        <v>31.1140060899371</v>
+        <v>30.00405408100041</v>
       </c>
       <c r="H8">
-        <v>3.020446786653022</v>
+        <v>2.830641307141329</v>
       </c>
       <c r="I8">
-        <v>4.148171078822722</v>
+        <v>3.864420981049664</v>
       </c>
       <c r="J8">
-        <v>10.49559275079462</v>
+        <v>10.58915440817818</v>
       </c>
       <c r="K8">
-        <v>18.06544262533198</v>
+        <v>16.96332608312564</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.3061778962732</v>
       </c>
       <c r="M8">
-        <v>14.62225329870105</v>
+        <v>11.76582654553177</v>
       </c>
       <c r="N8">
-        <v>6.555358764964174</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.710389827892438</v>
+        <v>14.64725233230299</v>
       </c>
       <c r="P8">
-        <v>13.67525973200297</v>
+        <v>6.888517058411789</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.518882027319513</v>
+      </c>
+      <c r="R8">
+        <v>13.39718161921219</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.32085658842067</v>
+        <v>11.33257470829522</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.486870482147941</v>
+        <v>4.560897185104147</v>
       </c>
       <c r="E9">
-        <v>11.6169138677023</v>
+        <v>11.1842451590572</v>
       </c>
       <c r="F9">
-        <v>24.61721694857375</v>
+        <v>23.90485347738777</v>
       </c>
       <c r="G9">
-        <v>33.99092452399942</v>
+        <v>32.67662731980192</v>
       </c>
       <c r="H9">
-        <v>2.582330844441016</v>
+        <v>2.426336395369102</v>
       </c>
       <c r="I9">
-        <v>3.838615435724513</v>
+        <v>3.598195658438187</v>
       </c>
       <c r="J9">
-        <v>10.7928151113368</v>
+        <v>10.86980702911108</v>
       </c>
       <c r="K9">
-        <v>18.0823435302253</v>
+        <v>16.84513524463753</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.02428476102375</v>
       </c>
       <c r="M9">
-        <v>16.67191282649285</v>
+        <v>11.83842988166456</v>
       </c>
       <c r="N9">
-        <v>7.158678684702332</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.53933153145992</v>
+        <v>16.74077993278769</v>
       </c>
       <c r="P9">
-        <v>13.32019418235405</v>
+        <v>7.511273806721866</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.31083849340493</v>
+      </c>
+      <c r="R9">
+        <v>13.0407135851354</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.13795286429098</v>
+        <v>12.07198637302464</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.61680311351782</v>
+        <v>4.736864121574067</v>
       </c>
       <c r="E10">
-        <v>12.15706392168361</v>
+        <v>11.7382698885186</v>
       </c>
       <c r="F10">
-        <v>25.85288921166185</v>
+        <v>24.91696475173207</v>
       </c>
       <c r="G10">
-        <v>35.83108052027904</v>
+        <v>34.80687416824996</v>
       </c>
       <c r="H10">
-        <v>2.308294923589547</v>
+        <v>2.178301584291551</v>
       </c>
       <c r="I10">
-        <v>3.638429896337458</v>
+        <v>3.430760157324173</v>
       </c>
       <c r="J10">
-        <v>10.98544641073528</v>
+        <v>10.76104564007972</v>
       </c>
       <c r="K10">
-        <v>17.99470377663853</v>
+        <v>16.64880032550715</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.73719785642533</v>
       </c>
       <c r="M10">
-        <v>18.06290229323654</v>
+        <v>11.86230404226519</v>
       </c>
       <c r="N10">
-        <v>7.472824111830358</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.01217731607969</v>
+        <v>18.10625268898189</v>
       </c>
       <c r="P10">
-        <v>13.04457307871263</v>
+        <v>7.82525261455914</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.75678863881039</v>
+      </c>
+      <c r="R10">
+        <v>12.76693124630985</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.77126370184146</v>
+        <v>11.81208292699861</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.807116627529323</v>
+        <v>4.974375718782399</v>
       </c>
       <c r="E11">
-        <v>12.91577539974833</v>
+        <v>12.56059873297603</v>
       </c>
       <c r="F11">
-        <v>25.36757104529472</v>
+        <v>24.23658640168731</v>
       </c>
       <c r="G11">
-        <v>34.80200864566918</v>
+        <v>34.76871253422592</v>
       </c>
       <c r="H11">
-        <v>3.155157244901994</v>
+        <v>3.067496765728999</v>
       </c>
       <c r="I11">
-        <v>3.615703101000662</v>
+        <v>3.420677414170193</v>
       </c>
       <c r="J11">
-        <v>10.69420616606581</v>
+        <v>9.935072263389239</v>
       </c>
       <c r="K11">
-        <v>17.1413400461023</v>
+        <v>15.89005903040394</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.135252928316</v>
       </c>
       <c r="M11">
-        <v>18.80992413363318</v>
+        <v>11.33655704911036</v>
       </c>
       <c r="N11">
-        <v>6.683680272857476</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.40800943329801</v>
+        <v>18.72590399789267</v>
       </c>
       <c r="P11">
-        <v>12.79456515885666</v>
+        <v>6.989746198850185</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.16484860994563</v>
+      </c>
+      <c r="R11">
+        <v>12.57310619981343</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.32664316451269</v>
+        <v>11.46793579504499</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.946970281751608</v>
+        <v>5.134125284733347</v>
       </c>
       <c r="E12">
-        <v>13.6813865676073</v>
+        <v>13.34488721435795</v>
       </c>
       <c r="F12">
-        <v>24.71460725886413</v>
+        <v>23.53904815907396</v>
       </c>
       <c r="G12">
-        <v>33.57926188444458</v>
+        <v>34.08530715424845</v>
       </c>
       <c r="H12">
-        <v>4.429630606182303</v>
+        <v>4.367609647413328</v>
       </c>
       <c r="I12">
-        <v>3.618733374205941</v>
+        <v>3.424548522109373</v>
       </c>
       <c r="J12">
-        <v>10.41176298782333</v>
+        <v>9.451278810162204</v>
       </c>
       <c r="K12">
-        <v>16.51381649586313</v>
+        <v>15.37893475834868</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.76848586934711</v>
       </c>
       <c r="M12">
-        <v>19.14784667429277</v>
+        <v>10.93862182953204</v>
       </c>
       <c r="N12">
-        <v>5.950362413608108</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.808048825680748</v>
+        <v>18.9901597236782</v>
       </c>
       <c r="P12">
-        <v>12.67787332700916</v>
+        <v>6.228095346214495</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.582980326305588</v>
+      </c>
+      <c r="R12">
+        <v>12.50353349245724</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.74400524994676</v>
+        <v>10.98762714926448</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.059239251205878</v>
+        <v>5.235365993297084</v>
       </c>
       <c r="E13">
-        <v>14.46935817965648</v>
+        <v>14.15489002444971</v>
       </c>
       <c r="F13">
-        <v>23.83843692461275</v>
+        <v>22.78776119066739</v>
       </c>
       <c r="G13">
-        <v>32.03344084608651</v>
+        <v>32.60071855240378</v>
       </c>
       <c r="H13">
-        <v>5.796621669856212</v>
+        <v>5.746220345110806</v>
       </c>
       <c r="I13">
-        <v>3.655392383220515</v>
+        <v>3.454823338608152</v>
       </c>
       <c r="J13">
-        <v>10.10275091643465</v>
+        <v>9.275698422918916</v>
       </c>
       <c r="K13">
-        <v>15.9926310011997</v>
+        <v>15.00163809469159</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.52032931198613</v>
       </c>
       <c r="M13">
-        <v>19.21195316719174</v>
+        <v>10.60931245743925</v>
       </c>
       <c r="N13">
-        <v>5.220434468714346</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.156800608711055</v>
+        <v>19.03629240337014</v>
       </c>
       <c r="P13">
-        <v>12.64834346664213</v>
+        <v>5.486707610769167</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>8.957427342004962</v>
+      </c>
+      <c r="R13">
+        <v>12.5107133184029</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.2587574045824</v>
+        <v>10.57619395032235</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.126953737672634</v>
+        <v>5.280372434507911</v>
       </c>
       <c r="E14">
-        <v>15.05013712060518</v>
+        <v>14.75755146217796</v>
       </c>
       <c r="F14">
-        <v>23.10834380709434</v>
+        <v>22.22092053492674</v>
       </c>
       <c r="G14">
-        <v>30.77554080414233</v>
+        <v>31.17662677469408</v>
       </c>
       <c r="H14">
-        <v>6.780038733336356</v>
+        <v>6.733876242258341</v>
       </c>
       <c r="I14">
-        <v>3.698599985887125</v>
+        <v>3.490896294393839</v>
       </c>
       <c r="J14">
-        <v>9.871533601892573</v>
+        <v>9.276524735923925</v>
       </c>
       <c r="K14">
-        <v>15.68324467785151</v>
+        <v>14.79731131490207</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.39238872155719</v>
       </c>
       <c r="M14">
-        <v>19.13629469371063</v>
+        <v>10.41601022610549</v>
       </c>
       <c r="N14">
-        <v>4.720281383971373</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.674559809788406</v>
+        <v>18.97222014090407</v>
       </c>
       <c r="P14">
-        <v>12.66955383787708</v>
+        <v>4.98634355882316</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.496278689963159</v>
+      </c>
+      <c r="R14">
+        <v>12.54862675117813</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.10017842142345</v>
+        <v>10.43671502371197</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.137463995147776</v>
+        <v>5.279099307827028</v>
       </c>
       <c r="E15">
-        <v>15.17362329443939</v>
+        <v>14.89304484355758</v>
       </c>
       <c r="F15">
-        <v>22.87460926068806</v>
+        <v>22.05960695487035</v>
       </c>
       <c r="G15">
-        <v>30.38458362160107</v>
+        <v>30.65596848018203</v>
       </c>
       <c r="H15">
-        <v>7.010956510347517</v>
+        <v>6.964878227547901</v>
       </c>
       <c r="I15">
-        <v>3.720767949826131</v>
+        <v>3.510448171316382</v>
       </c>
       <c r="J15">
-        <v>9.807664577546161</v>
+        <v>9.328342990078305</v>
       </c>
       <c r="K15">
-        <v>15.62080720779316</v>
+        <v>14.76410402152899</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.3728967997242</v>
       </c>
       <c r="M15">
-        <v>19.06173699741879</v>
+        <v>10.37885187716226</v>
       </c>
       <c r="N15">
-        <v>4.600728991286635</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.543697302737217</v>
+        <v>18.91091989533637</v>
       </c>
       <c r="P15">
-        <v>12.68879585073746</v>
+        <v>4.869199955389777</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.372015666301191</v>
+      </c>
+      <c r="R15">
+        <v>12.56916281982037</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.82349156004804</v>
+        <v>10.16502623874208</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.060845514780683</v>
+        <v>5.152174081383986</v>
       </c>
       <c r="E16">
-        <v>14.80791835830672</v>
+        <v>14.58799558451767</v>
       </c>
       <c r="F16">
-        <v>22.45665635721986</v>
+        <v>21.90660981844196</v>
       </c>
       <c r="G16">
-        <v>29.78414010193785</v>
+        <v>29.31360031871171</v>
       </c>
       <c r="H16">
-        <v>6.826570226131688</v>
+        <v>6.771966070360913</v>
       </c>
       <c r="I16">
-        <v>3.804852967101911</v>
+        <v>3.580318982902606</v>
       </c>
       <c r="J16">
-        <v>9.77367769147828</v>
+        <v>9.787658208092884</v>
       </c>
       <c r="K16">
-        <v>15.75794050552238</v>
+        <v>14.93380996616435</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.49627551320915</v>
       </c>
       <c r="M16">
-        <v>18.48965845082725</v>
+        <v>10.48327903017526</v>
       </c>
       <c r="N16">
-        <v>4.590786866116813</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.447223871166178</v>
+        <v>18.42687608928199</v>
       </c>
       <c r="P16">
-        <v>12.80309657747485</v>
+        <v>4.878670361324116</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.287383770884951</v>
+      </c>
+      <c r="R16">
+        <v>12.66397301183742</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.87680718903861</v>
+        <v>10.18385548301073</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.964726291066614</v>
+        <v>5.03675023833354</v>
       </c>
       <c r="E17">
-        <v>14.18902782860883</v>
+        <v>13.98808459618707</v>
       </c>
       <c r="F17">
-        <v>22.53954087530734</v>
+        <v>22.07158238254347</v>
       </c>
       <c r="G17">
-        <v>30.02131441292944</v>
+        <v>29.17679504989763</v>
       </c>
       <c r="H17">
-        <v>6.134918899746918</v>
+        <v>6.069845295671823</v>
       </c>
       <c r="I17">
-        <v>3.847067554992615</v>
+        <v>3.61586457579883</v>
       </c>
       <c r="J17">
-        <v>9.873111628143191</v>
+        <v>10.08323736258881</v>
       </c>
       <c r="K17">
-        <v>16.01912088595972</v>
+        <v>15.16870878946642</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.67002306606217</v>
       </c>
       <c r="M17">
-        <v>18.08370254020558</v>
+        <v>10.65289793974993</v>
       </c>
       <c r="N17">
-        <v>4.848657037200981</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.633698809418688</v>
+        <v>18.06963801282335</v>
       </c>
       <c r="P17">
-        <v>12.8788869005211</v>
+        <v>5.149212919254259</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.471171508860603</v>
+      </c>
+      <c r="R17">
+        <v>12.72194190392139</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.24543083775527</v>
+        <v>10.47612216248952</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.842605720226378</v>
+        <v>4.91140481256789</v>
       </c>
       <c r="E18">
-        <v>13.35352681252001</v>
+        <v>13.13950585996673</v>
       </c>
       <c r="F18">
-        <v>23.07534949492634</v>
+        <v>22.5866480567433</v>
       </c>
       <c r="G18">
-        <v>31.03047856166093</v>
+        <v>29.93652001081757</v>
       </c>
       <c r="H18">
-        <v>4.969028581866051</v>
+        <v>4.887426972108095</v>
       </c>
       <c r="I18">
-        <v>3.846608650968408</v>
+        <v>3.612681496713113</v>
       </c>
       <c r="J18">
-        <v>10.10170120234964</v>
+        <v>10.3681794858928</v>
       </c>
       <c r="K18">
-        <v>16.45914256435126</v>
+        <v>15.52901717593078</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.94374638827594</v>
       </c>
       <c r="M18">
-        <v>17.77577152328057</v>
+        <v>10.92235844639478</v>
       </c>
       <c r="N18">
-        <v>5.386281540210955</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.09659406758572</v>
+        <v>17.79970034924177</v>
       </c>
       <c r="P18">
-        <v>12.94615716418105</v>
+        <v>5.700997529596648</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>8.919395815370653</v>
+      </c>
+      <c r="R18">
+        <v>12.76573255991515</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.78606681457818</v>
+        <v>10.91397522545312</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.720159541658576</v>
+        <v>4.793971648470723</v>
       </c>
       <c r="E19">
-        <v>12.58002459901861</v>
+        <v>12.31497002615334</v>
       </c>
       <c r="F19">
-        <v>23.88173647861727</v>
+        <v>23.31427633342744</v>
       </c>
       <c r="G19">
-        <v>32.48966997185057</v>
+        <v>31.20633794118633</v>
       </c>
       <c r="H19">
-        <v>3.642592326567982</v>
+        <v>3.534815205587042</v>
       </c>
       <c r="I19">
-        <v>3.825239606637322</v>
+        <v>3.595599022244638</v>
       </c>
       <c r="J19">
-        <v>10.40033507248721</v>
+        <v>10.64918647035972</v>
       </c>
       <c r="K19">
-        <v>17.02053597588218</v>
+        <v>15.97127184160094</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.28280150963402</v>
       </c>
       <c r="M19">
-        <v>17.58858301385249</v>
+        <v>11.2572360967767</v>
       </c>
       <c r="N19">
-        <v>6.142425663926052</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.742278470843974</v>
+        <v>17.64544452469054</v>
       </c>
       <c r="P19">
-        <v>13.02033749776693</v>
+        <v>6.474445368599703</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.542469536297851</v>
+      </c>
+      <c r="R19">
+        <v>12.80882289308662</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.84726195980813</v>
+        <v>11.80101900334494</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.590907881092359</v>
+        <v>4.688873447324582</v>
       </c>
       <c r="E20">
-        <v>12.02535173176447</v>
+        <v>11.62016646071609</v>
       </c>
       <c r="F20">
-        <v>25.4576771753546</v>
+        <v>24.66035872581431</v>
       </c>
       <c r="G20">
-        <v>35.22242163364044</v>
+        <v>33.88790693748655</v>
       </c>
       <c r="H20">
-        <v>2.381854180640607</v>
+        <v>2.243271320186456</v>
       </c>
       <c r="I20">
-        <v>3.71706926340789</v>
+        <v>3.504723856891844</v>
       </c>
       <c r="J20">
-        <v>10.90714090685061</v>
+        <v>10.93828250298012</v>
       </c>
       <c r="K20">
-        <v>17.94135783774077</v>
+        <v>16.65212043581385</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.77510227531203</v>
       </c>
       <c r="M20">
-        <v>17.72962847965523</v>
+        <v>11.81602245618449</v>
       </c>
       <c r="N20">
-        <v>7.406713598293556</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.86770926936472</v>
+        <v>17.80849045360805</v>
       </c>
       <c r="P20">
-        <v>13.10387482048324</v>
+        <v>7.76519150168471</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.62315801820873</v>
+      </c>
+      <c r="R20">
+        <v>12.83272651180687</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.58393151046153</v>
+        <v>12.48291594005693</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.665743432265628</v>
+        <v>4.85322351670442</v>
       </c>
       <c r="E21">
-        <v>12.37933105249644</v>
+        <v>11.90441834785336</v>
       </c>
       <c r="F21">
-        <v>26.59665735363921</v>
+        <v>25.21861468465076</v>
       </c>
       <c r="G21">
-        <v>36.97158468464759</v>
+        <v>37.07359839679474</v>
       </c>
       <c r="H21">
-        <v>2.13253203415227</v>
+        <v>2.021250216366579</v>
       </c>
       <c r="I21">
-        <v>3.553333881877554</v>
+        <v>3.371641935348925</v>
       </c>
       <c r="J21">
-        <v>11.13356117429996</v>
+        <v>10.03956935242722</v>
       </c>
       <c r="K21">
-        <v>18.03619544173234</v>
+        <v>16.53848851185385</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.59008655563923</v>
       </c>
       <c r="M21">
-        <v>18.72506105653611</v>
+        <v>11.87399300884465</v>
       </c>
       <c r="N21">
-        <v>7.806069252604399</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.36708196922192</v>
+        <v>18.63801581316088</v>
       </c>
       <c r="P21">
-        <v>12.92203408290115</v>
+        <v>8.130107287357669</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.08339512974242</v>
+      </c>
+      <c r="R21">
+        <v>12.62620103079892</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.0347463782433</v>
+        <v>12.90601343836352</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.717746425048961</v>
+        <v>4.968197836793406</v>
       </c>
       <c r="E22">
-        <v>12.62426786978621</v>
+        <v>12.11077658451587</v>
       </c>
       <c r="F22">
-        <v>27.30064399368941</v>
+        <v>25.52826693632262</v>
       </c>
       <c r="G22">
-        <v>38.04047808887528</v>
+        <v>39.15564822409298</v>
       </c>
       <c r="H22">
-        <v>1.985313780708459</v>
+        <v>1.891674123324815</v>
       </c>
       <c r="I22">
-        <v>3.441278613669922</v>
+        <v>3.277021372122924</v>
       </c>
       <c r="J22">
-        <v>11.273340816257</v>
+        <v>9.41383792385682</v>
       </c>
       <c r="K22">
-        <v>18.08146316469319</v>
+        <v>16.44507248842048</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.45786101052987</v>
       </c>
       <c r="M22">
-        <v>19.35134059229931</v>
+        <v>11.90426051206449</v>
       </c>
       <c r="N22">
-        <v>7.997665885224061</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.64421204308515</v>
+        <v>19.14871954345858</v>
       </c>
       <c r="P22">
-        <v>12.80000594983383</v>
+        <v>8.296128737234183</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.33577617866678</v>
+      </c>
+      <c r="R22">
+        <v>12.48973976832932</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.82426855258121</v>
+        <v>12.70504423160524</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.687362652894533</v>
+        <v>4.896343024372107</v>
       </c>
       <c r="E23">
-        <v>12.49099912875542</v>
+        <v>12.00339688356627</v>
       </c>
       <c r="F23">
-        <v>26.9493828888938</v>
+        <v>25.43942681952917</v>
       </c>
       <c r="G23">
-        <v>37.51357998512941</v>
+        <v>37.91470636477452</v>
       </c>
       <c r="H23">
-        <v>2.062545261104793</v>
+        <v>1.958693647359738</v>
       </c>
       <c r="I23">
-        <v>3.49037469714444</v>
+        <v>3.314229595555017</v>
       </c>
       <c r="J23">
-        <v>11.20735532138126</v>
+        <v>9.867873541441959</v>
       </c>
       <c r="K23">
-        <v>18.08436763496168</v>
+        <v>16.53037121398793</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.55281311583593</v>
       </c>
       <c r="M23">
-        <v>19.01139601640081</v>
+        <v>11.91662652627444</v>
       </c>
       <c r="N23">
-        <v>7.888461805816227</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.50375957726534</v>
+        <v>18.8911434739975</v>
       </c>
       <c r="P23">
-        <v>12.86961919246181</v>
+        <v>8.206556813551822</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.20987905894284</v>
+      </c>
+      <c r="R23">
+        <v>12.56721443070293</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.94430028009634</v>
+        <v>11.88520873815374</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.574405479155154</v>
+        <v>4.671813119210605</v>
       </c>
       <c r="E24">
-        <v>11.98680776441998</v>
+        <v>11.56707111171673</v>
       </c>
       <c r="F24">
-        <v>25.57136359623457</v>
+        <v>24.76702461085292</v>
       </c>
       <c r="G24">
-        <v>35.42989279658988</v>
+        <v>34.06263322164178</v>
       </c>
       <c r="H24">
-        <v>2.36259708063502</v>
+        <v>2.22395277864135</v>
       </c>
       <c r="I24">
-        <v>3.698395038162527</v>
+        <v>3.483250964336349</v>
       </c>
       <c r="J24">
-        <v>10.95161854890836</v>
+        <v>10.98637664994881</v>
       </c>
       <c r="K24">
-        <v>18.05555527413178</v>
+        <v>16.74667024831636</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.84814002048647</v>
       </c>
       <c r="M24">
-        <v>17.68775304918094</v>
+        <v>11.8868695557872</v>
       </c>
       <c r="N24">
-        <v>7.476545674254755</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.94507927209597</v>
+        <v>17.77151764603044</v>
       </c>
       <c r="P24">
-        <v>13.12707111387424</v>
+        <v>7.838467319715195</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.69757091043935</v>
+      </c>
+      <c r="R24">
+        <v>12.8489549284444</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.91645809438409</v>
+        <v>10.96656866180687</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.44767799265948</v>
+        <v>4.50643728972531</v>
       </c>
       <c r="E25">
-        <v>11.43232215160668</v>
+        <v>11.00124424327593</v>
       </c>
       <c r="F25">
-        <v>24.07046306855065</v>
+        <v>23.43546122344394</v>
       </c>
       <c r="G25">
-        <v>33.14670160932976</v>
+        <v>31.78506680748353</v>
       </c>
       <c r="H25">
-        <v>2.699429050276316</v>
+        <v>2.533710648864817</v>
       </c>
       <c r="I25">
-        <v>3.9342908567764</v>
+        <v>3.684472186507158</v>
       </c>
       <c r="J25">
-        <v>10.69428434977652</v>
+        <v>10.85063608712578</v>
       </c>
       <c r="K25">
-        <v>18.03442904447156</v>
+        <v>16.84699522674793</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.07586119589975</v>
       </c>
       <c r="M25">
-        <v>16.1547686179685</v>
+        <v>11.78711846655337</v>
       </c>
       <c r="N25">
-        <v>7.011674351788469</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.31046441026846</v>
+        <v>16.22504872979341</v>
       </c>
       <c r="P25">
-        <v>13.40803756146133</v>
+        <v>7.361057840909682</v>
       </c>
       <c r="Q25">
+        <v>10.09364450999279</v>
+      </c>
+      <c r="R25">
+        <v>13.13225956316371</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
